--- a/public/data/db_source/variable.xlsx
+++ b/public/data/db_source/variable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A3D292-E339-3E4E-BF86-CDA671EACF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368E0938-8FFB-6E43-875D-869F88BB5495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5940" yWindow="500" windowWidth="22860" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="1275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="1283">
   <si>
     <t>id</t>
   </si>
@@ -3845,6 +3845,30 @@
   </si>
   <si>
     <t>nouvelle personne non présente dans la précdante version des données</t>
+  </si>
+  <si>
+    <t>modality_ids</t>
+  </si>
+  <si>
+    <t>modality_1</t>
+  </si>
+  <si>
+    <t>a_or_b</t>
+  </si>
+  <si>
+    <t>canton_sigle</t>
+  </si>
+  <si>
+    <t>langue_sigle</t>
+  </si>
+  <si>
+    <t>oui_non, vide</t>
+  </si>
+  <si>
+    <t>tag_ids</t>
+  </si>
+  <si>
+    <t>localisation</t>
   </si>
 </sst>
 </file>
@@ -3914,9 +3938,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5F79C97-E8B2-3E4B-873D-A9EBE7FF4B08}" name="Tableau1" displayName="Tableau1" ref="A1:K602" totalsRowShown="0">
-  <autoFilter ref="A1:K602" xr:uid="{B5F79C97-E8B2-3E4B-873D-A9EBE7FF4B08}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5F79C97-E8B2-3E4B-873D-A9EBE7FF4B08}" name="Tableau1" displayName="Tableau1" ref="A1:M602" totalsRowShown="0">
+  <autoFilter ref="A1:M602" xr:uid="{B5F79C97-E8B2-3E4B-873D-A9EBE7FF4B08}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{93604F40-CD55-3D4B-AC71-27C6EBB96585}" name="id"/>
     <tableColumn id="2" xr3:uid="{BF843A60-41B0-EA48-977A-51FEEA73F6C7}" name="dataset_id"/>
     <tableColumn id="3" xr3:uid="{BCB7C440-426C-EF4D-8E48-57BB86725760}" name="name"/>
@@ -3928,6 +3952,8 @@
     <tableColumn id="8" xr3:uid="{FD4B4D3E-8867-AA4D-9093-A135708498A9}" name="description"/>
     <tableColumn id="9" xr3:uid="{0DB3AD0D-30A6-B443-92FF-88F6E231297E}" name="start_date" dataDxfId="1"/>
     <tableColumn id="10" xr3:uid="{7AEC9287-EE71-324F-90D8-FD7C1B573F48}" name="end_date" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{113E5C5D-89D6-9C42-8737-7B27E528F557}" name="modality_ids"/>
+    <tableColumn id="13" xr3:uid="{0D9C543A-3D7D-A74A-A543-90491A90EB94}" name="tag_ids"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4220,18 +4246,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K602"/>
+  <dimension ref="A1:M602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -4242,9 +4268,11 @@
     <col min="9" max="9" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4278,8 +4306,14 @@
       <c r="K1" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>663</v>
       </c>
@@ -4296,7 +4330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>664</v>
       </c>
@@ -4313,7 +4347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>665</v>
       </c>
@@ -4338,8 +4372,11 @@
       <c r="K4" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>666</v>
       </c>
@@ -4356,7 +4393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>667</v>
       </c>
@@ -4375,8 +4412,11 @@
       <c r="J6" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>668</v>
       </c>
@@ -4396,7 +4436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>669</v>
       </c>
@@ -4425,7 +4465,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>670</v>
       </c>
@@ -4448,7 +4488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>671</v>
       </c>
@@ -4471,7 +4511,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>672</v>
       </c>
@@ -4488,7 +4528,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>673</v>
       </c>
@@ -4508,7 +4548,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>674</v>
       </c>
@@ -4525,7 +4565,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>675</v>
       </c>
@@ -4548,7 +4588,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>676</v>
       </c>
@@ -4565,7 +4605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>677</v>
       </c>
@@ -4582,7 +4622,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>678</v>
       </c>
@@ -4602,7 +4642,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>679</v>
       </c>
@@ -4619,7 +4659,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>680</v>
       </c>
@@ -4636,7 +4676,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>681</v>
       </c>
@@ -4653,7 +4693,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>682</v>
       </c>
@@ -4670,7 +4710,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>683</v>
       </c>
@@ -4687,7 +4727,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>684</v>
       </c>
@@ -4704,7 +4744,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>685</v>
       </c>
@@ -4721,7 +4761,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>686</v>
       </c>
@@ -4738,7 +4778,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>687</v>
       </c>
@@ -4755,7 +4795,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>688</v>
       </c>
@@ -4772,7 +4812,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>689</v>
       </c>
@@ -4789,7 +4829,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>690</v>
       </c>
@@ -4806,7 +4846,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>691</v>
       </c>
@@ -4823,7 +4863,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>692</v>
       </c>
@@ -4839,8 +4879,11 @@
       <c r="I31" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>693</v>
       </c>
@@ -4857,7 +4900,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>694</v>
       </c>
@@ -4874,7 +4917,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>695</v>
       </c>
@@ -4891,7 +4934,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>696</v>
       </c>
@@ -4908,7 +4951,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>697</v>
       </c>
@@ -4925,7 +4968,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1260</v>
       </c>
@@ -4944,8 +4987,14 @@
       <c r="I37" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37" t="s">
+        <v>1278</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1269</v>
       </c>
@@ -4964,8 +5013,11 @@
       <c r="I38" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1270</v>
       </c>
@@ -4987,8 +5039,11 @@
       <c r="J39" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1268</v>
       </c>
@@ -5008,7 +5063,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>698</v>
       </c>
@@ -5034,7 +5089,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>699</v>
       </c>
@@ -5059,8 +5114,11 @@
       <c r="J42" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>700</v>
       </c>
@@ -5083,7 +5141,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>701</v>
       </c>
@@ -5103,7 +5161,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>702</v>
       </c>
@@ -5126,7 +5184,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>703</v>
       </c>
@@ -5146,7 +5204,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>704</v>
       </c>
@@ -5169,7 +5227,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>705</v>
       </c>

--- a/public/data/db_source/variable.xlsx
+++ b/public/data/db_source/variable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368E0938-8FFB-6E43-875D-869F88BB5495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABB6871-33B6-A34B-9085-E380F9774508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5940" yWindow="500" windowWidth="22860" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4249,10 +4249,10 @@
   <dimension ref="A1:M602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N35" sqref="N35"/>
+      <selection pane="bottomRight" activeCell="A50" sqref="A50:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/public/data/db_source/variable.xlsx
+++ b/public/data/db_source/variable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABB6871-33B6-A34B-9085-E380F9774508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1039B3EC-CDDE-614B-A665-2C449148C8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="500" windowWidth="22860" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3680" windowWidth="28800" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="1283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="1287">
   <si>
     <t>id</t>
   </si>
@@ -3869,6 +3869,18 @@
   </si>
   <si>
     <t>localisation</t>
+  </si>
+  <si>
+    <t>test description 3</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_36</t>
+  </si>
+  <si>
+    <t>variable 36</t>
+  </si>
+  <si>
+    <t>description of variable 36</t>
   </si>
 </sst>
 </file>
@@ -3938,8 +3950,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5F79C97-E8B2-3E4B-873D-A9EBE7FF4B08}" name="Tableau1" displayName="Tableau1" ref="A1:M602" totalsRowShown="0">
-  <autoFilter ref="A1:M602" xr:uid="{B5F79C97-E8B2-3E4B-873D-A9EBE7FF4B08}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5F79C97-E8B2-3E4B-873D-A9EBE7FF4B08}" name="Tableau1" displayName="Tableau1" ref="A1:M603" totalsRowShown="0">
+  <autoFilter ref="A1:M603" xr:uid="{B5F79C97-E8B2-3E4B-873D-A9EBE7FF4B08}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{93604F40-CD55-3D4B-AC71-27C6EBB96585}" name="id"/>
     <tableColumn id="2" xr3:uid="{BF843A60-41B0-EA48-977A-51FEEA73F6C7}" name="dataset_id"/>
@@ -4246,13 +4258,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M602"/>
+  <dimension ref="A1:M603"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A50" sqref="A50:XFD52"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4970,392 +4982,395 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1260</v>
+        <v>1284</v>
       </c>
       <c r="B37" t="s">
         <v>660</v>
       </c>
       <c r="C37" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1262</v>
+        <v>1285</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I37" t="s">
-        <v>1272</v>
-      </c>
-      <c r="L37" t="s">
-        <v>1278</v>
-      </c>
-      <c r="M37" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1269</v>
+        <v>1260</v>
       </c>
       <c r="B38" t="s">
         <v>660</v>
       </c>
       <c r="C38" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="D38" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
       </c>
       <c r="I38" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="L38" t="s">
-        <v>1279</v>
+        <v>1278</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B39" t="s">
         <v>660</v>
       </c>
       <c r="C39" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D39" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I39" t="s">
-        <v>1274</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>96</v>
+        <v>1273</v>
       </c>
       <c r="L39" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="B40" t="s">
         <v>660</v>
       </c>
       <c r="C40" t="s">
-        <v>1267</v>
+        <v>1265</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1266</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I40" t="s">
-        <v>1271</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>85</v>
+        <v>1274</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1280</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>698</v>
+        <v>1268</v>
       </c>
       <c r="B41" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>1267</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I41" t="s">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>94</v>
+        <v>1271</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B42" t="s">
         <v>661</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L42" t="s">
-        <v>1277</v>
+      <c r="K42" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B43" t="s">
         <v>661</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
         <v>8</v>
       </c>
       <c r="I43" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>99</v>
+      <c r="L43" t="s">
+        <v>1277</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B44" t="s">
         <v>661</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I44" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="K44" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B45" t="s">
         <v>661</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I45" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B46" t="s">
         <v>661</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I46" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="K46" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B47" t="s">
         <v>661</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I47" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B48" t="s">
         <v>661</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I48" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="K48" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B49" t="s">
         <v>661</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I49" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B50" t="s">
         <v>661</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I50" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="K50" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B51" t="s">
         <v>661</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I51" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B52" t="s">
         <v>661</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I52" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="K52" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B53" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C53" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="I53" t="s">
+        <v>40</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B54" t="s">
         <v>662</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
@@ -5363,13 +5378,13 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B55" t="s">
         <v>662</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
@@ -5377,13 +5392,13 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B56" t="s">
         <v>662</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
@@ -5391,13 +5406,13 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B57" t="s">
         <v>662</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
@@ -5405,13 +5420,13 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B58" t="s">
         <v>662</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
@@ -5419,13 +5434,13 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B59" t="s">
         <v>662</v>
       </c>
       <c r="C59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
@@ -5433,13 +5448,13 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B60" t="s">
         <v>662</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
@@ -5447,13 +5462,13 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B61" t="s">
         <v>662</v>
       </c>
       <c r="C61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
@@ -5461,13 +5476,13 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B62" t="s">
         <v>662</v>
       </c>
       <c r="C62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
@@ -5475,13 +5490,13 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B63" t="s">
         <v>662</v>
       </c>
       <c r="C63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
@@ -5489,13 +5504,13 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B64" t="s">
         <v>662</v>
       </c>
       <c r="C64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E64" t="s">
         <v>8</v>
@@ -5503,13 +5518,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B65" t="s">
         <v>662</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E65" t="s">
         <v>8</v>
@@ -5517,13 +5532,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B66" t="s">
         <v>662</v>
       </c>
       <c r="C66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
@@ -5531,13 +5546,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B67" t="s">
         <v>662</v>
       </c>
       <c r="C67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
@@ -5545,13 +5560,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B68" t="s">
         <v>662</v>
       </c>
       <c r="C68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
@@ -5559,13 +5574,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B69" t="s">
         <v>662</v>
       </c>
       <c r="C69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E69" t="s">
         <v>8</v>
@@ -5573,13 +5588,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B70" t="s">
         <v>662</v>
       </c>
       <c r="C70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
@@ -5587,13 +5602,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B71" t="s">
         <v>662</v>
       </c>
       <c r="C71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
@@ -5601,13 +5616,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B72" t="s">
         <v>662</v>
       </c>
       <c r="C72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E72" t="s">
         <v>8</v>
@@ -5615,13 +5630,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B73" t="s">
         <v>662</v>
       </c>
       <c r="C73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
@@ -5629,13 +5644,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B74" t="s">
         <v>662</v>
       </c>
       <c r="C74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
@@ -5643,13 +5658,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B75" t="s">
         <v>662</v>
       </c>
       <c r="C75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
@@ -5657,13 +5672,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B76" t="s">
         <v>662</v>
       </c>
       <c r="C76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E76" t="s">
         <v>8</v>
@@ -5671,13 +5686,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B77" t="s">
         <v>662</v>
       </c>
       <c r="C77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E77" t="s">
         <v>8</v>
@@ -5685,13 +5700,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B78" t="s">
         <v>662</v>
       </c>
       <c r="C78" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E78" t="s">
         <v>8</v>
@@ -5699,13 +5714,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B79" t="s">
         <v>662</v>
       </c>
       <c r="C79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E79" t="s">
         <v>8</v>
@@ -5713,13 +5728,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B80" t="s">
         <v>662</v>
       </c>
       <c r="C80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
@@ -5727,13 +5742,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B81" t="s">
         <v>662</v>
       </c>
       <c r="C81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E81" t="s">
         <v>8</v>
@@ -5741,13 +5756,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B82" t="s">
         <v>662</v>
       </c>
       <c r="C82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E82" t="s">
         <v>8</v>
@@ -5755,13 +5770,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B83" t="s">
         <v>662</v>
       </c>
       <c r="C83" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E83" t="s">
         <v>8</v>
@@ -5769,13 +5784,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B84" t="s">
         <v>662</v>
       </c>
       <c r="C84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E84" t="s">
         <v>8</v>
@@ -5783,13 +5798,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B85" t="s">
         <v>662</v>
       </c>
       <c r="C85" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
@@ -5797,13 +5812,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B86" t="s">
         <v>662</v>
       </c>
       <c r="C86" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
@@ -5811,13 +5826,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B87" t="s">
         <v>662</v>
       </c>
       <c r="C87" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
@@ -5825,13 +5840,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B88" t="s">
         <v>662</v>
       </c>
       <c r="C88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
@@ -5839,13 +5854,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B89" t="s">
         <v>662</v>
       </c>
       <c r="C89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
@@ -5853,13 +5868,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B90" t="s">
         <v>662</v>
       </c>
       <c r="C90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E90" t="s">
         <v>8</v>
@@ -5867,13 +5882,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B91" t="s">
         <v>662</v>
       </c>
       <c r="C91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
@@ -5881,13 +5896,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B92" t="s">
         <v>662</v>
       </c>
       <c r="C92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" t="s">
         <v>8</v>
@@ -5895,13 +5910,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B93" t="s">
         <v>662</v>
       </c>
       <c r="C93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E93" t="s">
         <v>8</v>
@@ -5909,13 +5924,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B94" t="s">
         <v>662</v>
       </c>
       <c r="C94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E94" t="s">
         <v>8</v>
@@ -5923,13 +5938,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B95" t="s">
         <v>662</v>
       </c>
       <c r="C95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E95" t="s">
         <v>8</v>
@@ -5937,13 +5952,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B96" t="s">
         <v>662</v>
       </c>
       <c r="C96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E96" t="s">
         <v>8</v>
@@ -5951,13 +5966,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B97" t="s">
         <v>662</v>
       </c>
       <c r="C97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E97" t="s">
         <v>8</v>
@@ -5965,13 +5980,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B98" t="s">
         <v>662</v>
       </c>
       <c r="C98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E98" t="s">
         <v>8</v>
@@ -5979,13 +5994,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B99" t="s">
         <v>662</v>
       </c>
       <c r="C99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
@@ -5993,13 +6008,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B100" t="s">
         <v>662</v>
       </c>
       <c r="C100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E100" t="s">
         <v>8</v>
@@ -6007,13 +6022,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B101" t="s">
         <v>662</v>
       </c>
       <c r="C101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E101" t="s">
         <v>8</v>
@@ -6021,13 +6036,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B102" t="s">
         <v>662</v>
       </c>
       <c r="C102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E102" t="s">
         <v>8</v>
@@ -6035,13 +6050,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B103" t="s">
         <v>662</v>
       </c>
       <c r="C103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E103" t="s">
         <v>8</v>
@@ -6049,13 +6064,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B104" t="s">
         <v>662</v>
       </c>
       <c r="C104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E104" t="s">
         <v>8</v>
@@ -6063,13 +6078,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B105" t="s">
         <v>662</v>
       </c>
       <c r="C105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
@@ -6077,13 +6092,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B106" t="s">
         <v>662</v>
       </c>
       <c r="C106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E106" t="s">
         <v>8</v>
@@ -6091,13 +6106,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B107" t="s">
         <v>662</v>
       </c>
       <c r="C107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E107" t="s">
         <v>8</v>
@@ -6105,13 +6120,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B108" t="s">
         <v>662</v>
       </c>
       <c r="C108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E108" t="s">
         <v>8</v>
@@ -6119,13 +6134,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B109" t="s">
         <v>662</v>
       </c>
       <c r="C109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E109" t="s">
         <v>8</v>
@@ -6133,13 +6148,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B110" t="s">
         <v>662</v>
       </c>
       <c r="C110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E110" t="s">
         <v>8</v>
@@ -6147,13 +6162,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B111" t="s">
         <v>662</v>
       </c>
       <c r="C111" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E111" t="s">
         <v>8</v>
@@ -6161,13 +6176,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B112" t="s">
         <v>662</v>
       </c>
       <c r="C112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E112" t="s">
         <v>8</v>
@@ -6175,13 +6190,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B113" t="s">
         <v>662</v>
       </c>
       <c r="C113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E113" t="s">
         <v>8</v>
@@ -6189,13 +6204,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B114" t="s">
         <v>662</v>
       </c>
       <c r="C114" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E114" t="s">
         <v>8</v>
@@ -6203,13 +6218,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B115" t="s">
         <v>662</v>
       </c>
       <c r="C115" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E115" t="s">
         <v>8</v>
@@ -6217,13 +6232,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B116" t="s">
         <v>662</v>
       </c>
       <c r="C116" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E116" t="s">
         <v>8</v>
@@ -6231,13 +6246,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B117" t="s">
         <v>662</v>
       </c>
       <c r="C117" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E117" t="s">
         <v>8</v>
@@ -6245,13 +6260,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B118" t="s">
         <v>662</v>
       </c>
       <c r="C118" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E118" t="s">
         <v>8</v>
@@ -6259,13 +6274,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B119" t="s">
         <v>662</v>
       </c>
       <c r="C119" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E119" t="s">
         <v>8</v>
@@ -6273,13 +6288,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B120" t="s">
         <v>662</v>
       </c>
       <c r="C120" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E120" t="s">
         <v>8</v>
@@ -6287,13 +6302,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B121" t="s">
         <v>662</v>
       </c>
       <c r="C121" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E121" t="s">
         <v>8</v>
@@ -6301,13 +6316,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B122" t="s">
         <v>662</v>
       </c>
       <c r="C122" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E122" t="s">
         <v>8</v>
@@ -6315,13 +6330,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B123" t="s">
         <v>662</v>
       </c>
       <c r="C123" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E123" t="s">
         <v>8</v>
@@ -6329,13 +6344,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B124" t="s">
         <v>662</v>
       </c>
       <c r="C124" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E124" t="s">
         <v>8</v>
@@ -6343,13 +6358,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B125" t="s">
         <v>662</v>
       </c>
       <c r="C125" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E125" t="s">
         <v>8</v>
@@ -6357,13 +6372,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B126" t="s">
         <v>662</v>
       </c>
       <c r="C126" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E126" t="s">
         <v>8</v>
@@ -6371,13 +6386,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B127" t="s">
         <v>662</v>
       </c>
       <c r="C127" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E127" t="s">
         <v>8</v>
@@ -6385,13 +6400,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B128" t="s">
         <v>662</v>
       </c>
       <c r="C128" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E128" t="s">
         <v>8</v>
@@ -6399,13 +6414,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B129" t="s">
         <v>662</v>
       </c>
       <c r="C129" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E129" t="s">
         <v>8</v>
@@ -6413,13 +6428,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B130" t="s">
         <v>662</v>
       </c>
       <c r="C130" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E130" t="s">
         <v>8</v>
@@ -6427,13 +6442,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B131" t="s">
         <v>662</v>
       </c>
       <c r="C131" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E131" t="s">
         <v>8</v>
@@ -6441,13 +6456,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B132" t="s">
         <v>662</v>
       </c>
       <c r="C132" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E132" t="s">
         <v>8</v>
@@ -6455,13 +6470,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B133" t="s">
         <v>662</v>
       </c>
       <c r="C133" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E133" t="s">
         <v>8</v>
@@ -6469,13 +6484,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B134" t="s">
         <v>662</v>
       </c>
       <c r="C134" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E134" t="s">
         <v>8</v>
@@ -6483,13 +6498,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B135" t="s">
         <v>662</v>
       </c>
       <c r="C135" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E135" t="s">
         <v>8</v>
@@ -6497,13 +6512,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B136" t="s">
         <v>662</v>
       </c>
       <c r="C136" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E136" t="s">
         <v>8</v>
@@ -6511,13 +6526,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B137" t="s">
         <v>662</v>
       </c>
       <c r="C137" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E137" t="s">
         <v>8</v>
@@ -6525,13 +6540,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B138" t="s">
         <v>662</v>
       </c>
       <c r="C138" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E138" t="s">
         <v>8</v>
@@ -6539,13 +6554,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B139" t="s">
         <v>662</v>
       </c>
       <c r="C139" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E139" t="s">
         <v>8</v>
@@ -6553,13 +6568,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B140" t="s">
         <v>662</v>
       </c>
       <c r="C140" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E140" t="s">
         <v>8</v>
@@ -6567,13 +6582,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B141" t="s">
         <v>662</v>
       </c>
       <c r="C141" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E141" t="s">
         <v>8</v>
@@ -6581,13 +6596,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B142" t="s">
         <v>662</v>
       </c>
       <c r="C142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E142" t="s">
         <v>8</v>
@@ -6595,13 +6610,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B143" t="s">
         <v>662</v>
       </c>
       <c r="C143" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E143" t="s">
         <v>8</v>
@@ -6609,13 +6624,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B144" t="s">
         <v>662</v>
       </c>
       <c r="C144" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E144" t="s">
         <v>8</v>
@@ -6623,13 +6638,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B145" t="s">
         <v>662</v>
       </c>
       <c r="C145" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E145" t="s">
         <v>8</v>
@@ -6637,13 +6652,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B146" t="s">
         <v>662</v>
       </c>
       <c r="C146" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
@@ -6651,13 +6666,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B147" t="s">
         <v>662</v>
       </c>
       <c r="C147" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E147" t="s">
         <v>8</v>
@@ -6665,13 +6680,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B148" t="s">
         <v>662</v>
       </c>
       <c r="C148" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E148" t="s">
         <v>8</v>
@@ -6679,13 +6694,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B149" t="s">
         <v>662</v>
       </c>
       <c r="C149" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E149" t="s">
         <v>8</v>
@@ -6693,13 +6708,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B150" t="s">
         <v>662</v>
       </c>
       <c r="C150" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E150" t="s">
         <v>8</v>
@@ -6707,13 +6722,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B151" t="s">
         <v>662</v>
       </c>
       <c r="C151" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E151" t="s">
         <v>8</v>
@@ -6721,13 +6736,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B152" t="s">
         <v>662</v>
       </c>
       <c r="C152" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E152" t="s">
         <v>8</v>
@@ -6735,13 +6750,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B153" t="s">
         <v>662</v>
       </c>
       <c r="C153" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E153" t="s">
         <v>8</v>
@@ -6749,13 +6764,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B154" t="s">
         <v>662</v>
       </c>
       <c r="C154" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E154" t="s">
         <v>8</v>
@@ -6763,13 +6778,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B155" t="s">
         <v>662</v>
       </c>
       <c r="C155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E155" t="s">
         <v>8</v>
@@ -6777,13 +6792,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B156" t="s">
         <v>662</v>
       </c>
       <c r="C156" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E156" t="s">
         <v>8</v>
@@ -6791,13 +6806,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B157" t="s">
         <v>662</v>
       </c>
       <c r="C157" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E157" t="s">
         <v>8</v>
@@ -6805,13 +6820,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B158" t="s">
         <v>662</v>
       </c>
       <c r="C158" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E158" t="s">
         <v>8</v>
@@ -6819,13 +6834,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B159" t="s">
         <v>662</v>
       </c>
       <c r="C159" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E159" t="s">
         <v>8</v>
@@ -6833,13 +6848,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B160" t="s">
         <v>662</v>
       </c>
       <c r="C160" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E160" t="s">
         <v>8</v>
@@ -6847,13 +6862,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B161" t="s">
         <v>662</v>
       </c>
       <c r="C161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E161" t="s">
         <v>8</v>
@@ -6861,13 +6876,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B162" t="s">
         <v>662</v>
       </c>
       <c r="C162" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E162" t="s">
         <v>8</v>
@@ -6875,13 +6890,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B163" t="s">
         <v>662</v>
       </c>
       <c r="C163" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E163" t="s">
         <v>8</v>
@@ -6889,13 +6904,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B164" t="s">
         <v>662</v>
       </c>
       <c r="C164" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E164" t="s">
         <v>8</v>
@@ -6903,13 +6918,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B165" t="s">
         <v>662</v>
       </c>
       <c r="C165" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E165" t="s">
         <v>8</v>
@@ -6917,13 +6932,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B166" t="s">
         <v>662</v>
       </c>
       <c r="C166" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E166" t="s">
         <v>8</v>
@@ -6931,13 +6946,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B167" t="s">
         <v>662</v>
       </c>
       <c r="C167" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E167" t="s">
         <v>8</v>
@@ -6945,13 +6960,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B168" t="s">
         <v>662</v>
       </c>
       <c r="C168" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E168" t="s">
         <v>8</v>
@@ -6959,13 +6974,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B169" t="s">
         <v>662</v>
       </c>
       <c r="C169" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E169" t="s">
         <v>8</v>
@@ -6973,13 +6988,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B170" t="s">
         <v>662</v>
       </c>
       <c r="C170" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E170" t="s">
         <v>8</v>
@@ -6987,13 +7002,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B171" t="s">
         <v>662</v>
       </c>
       <c r="C171" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E171" t="s">
         <v>8</v>
@@ -7001,13 +7016,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B172" t="s">
         <v>662</v>
       </c>
       <c r="C172" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E172" t="s">
         <v>8</v>
@@ -7015,13 +7030,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B173" t="s">
         <v>662</v>
       </c>
       <c r="C173" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E173" t="s">
         <v>8</v>
@@ -7029,13 +7044,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B174" t="s">
         <v>662</v>
       </c>
       <c r="C174" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E174" t="s">
         <v>8</v>
@@ -7043,13 +7058,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B175" t="s">
         <v>662</v>
       </c>
       <c r="C175" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E175" t="s">
         <v>8</v>
@@ -7057,13 +7072,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B176" t="s">
         <v>662</v>
       </c>
       <c r="C176" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E176" t="s">
         <v>8</v>
@@ -7071,13 +7086,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B177" t="s">
         <v>662</v>
       </c>
       <c r="C177" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E177" t="s">
         <v>8</v>
@@ -7085,13 +7100,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B178" t="s">
         <v>662</v>
       </c>
       <c r="C178" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E178" t="s">
         <v>8</v>
@@ -7099,13 +7114,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B179" t="s">
         <v>662</v>
       </c>
       <c r="C179" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E179" t="s">
         <v>8</v>
@@ -7113,13 +7128,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B180" t="s">
         <v>662</v>
       </c>
       <c r="C180" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E180" t="s">
         <v>8</v>
@@ -7127,13 +7142,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B181" t="s">
         <v>662</v>
       </c>
       <c r="C181" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E181" t="s">
         <v>8</v>
@@ -7141,13 +7156,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B182" t="s">
         <v>662</v>
       </c>
       <c r="C182" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E182" t="s">
         <v>8</v>
@@ -7155,13 +7170,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B183" t="s">
         <v>662</v>
       </c>
       <c r="C183" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E183" t="s">
         <v>8</v>
@@ -7169,13 +7184,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B184" t="s">
         <v>662</v>
       </c>
       <c r="C184" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E184" t="s">
         <v>8</v>
@@ -7183,13 +7198,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B185" t="s">
         <v>662</v>
       </c>
       <c r="C185" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E185" t="s">
         <v>8</v>
@@ -7197,13 +7212,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B186" t="s">
         <v>662</v>
       </c>
       <c r="C186" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E186" t="s">
         <v>8</v>
@@ -7211,13 +7226,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B187" t="s">
         <v>662</v>
       </c>
       <c r="C187" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E187" t="s">
         <v>8</v>
@@ -7225,13 +7240,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B188" t="s">
         <v>662</v>
       </c>
       <c r="C188" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E188" t="s">
         <v>8</v>
@@ -7239,13 +7254,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B189" t="s">
         <v>662</v>
       </c>
       <c r="C189" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E189" t="s">
         <v>8</v>
@@ -7253,13 +7268,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B190" t="s">
         <v>662</v>
       </c>
       <c r="C190" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E190" t="s">
         <v>8</v>
@@ -7267,13 +7282,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B191" t="s">
         <v>662</v>
       </c>
       <c r="C191" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E191" t="s">
         <v>8</v>
@@ -7281,13 +7296,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B192" t="s">
         <v>662</v>
       </c>
       <c r="C192" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E192" t="s">
         <v>8</v>
@@ -7295,13 +7310,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B193" t="s">
         <v>662</v>
       </c>
       <c r="C193" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E193" t="s">
         <v>8</v>
@@ -7309,13 +7324,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B194" t="s">
         <v>662</v>
       </c>
       <c r="C194" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E194" t="s">
         <v>8</v>
@@ -7323,13 +7338,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B195" t="s">
         <v>662</v>
       </c>
       <c r="C195" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E195" t="s">
         <v>8</v>
@@ -7337,13 +7352,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B196" t="s">
         <v>662</v>
       </c>
       <c r="C196" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E196" t="s">
         <v>8</v>
@@ -7351,13 +7366,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B197" t="s">
         <v>662</v>
       </c>
       <c r="C197" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E197" t="s">
         <v>8</v>
@@ -7365,13 +7380,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B198" t="s">
         <v>662</v>
       </c>
       <c r="C198" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E198" t="s">
         <v>8</v>
@@ -7379,13 +7394,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B199" t="s">
         <v>662</v>
       </c>
       <c r="C199" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E199" t="s">
         <v>8</v>
@@ -7393,13 +7408,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B200" t="s">
         <v>662</v>
       </c>
       <c r="C200" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E200" t="s">
         <v>8</v>
@@ -7407,13 +7422,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B201" t="s">
         <v>662</v>
       </c>
       <c r="C201" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E201" t="s">
         <v>8</v>
@@ -7421,13 +7436,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B202" t="s">
         <v>662</v>
       </c>
       <c r="C202" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E202" t="s">
         <v>8</v>
@@ -7435,13 +7450,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B203" t="s">
         <v>662</v>
       </c>
       <c r="C203" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E203" t="s">
         <v>8</v>
@@ -7449,13 +7464,13 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B204" t="s">
         <v>662</v>
       </c>
       <c r="C204" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E204" t="s">
         <v>8</v>
@@ -7463,13 +7478,13 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B205" t="s">
         <v>662</v>
       </c>
       <c r="C205" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E205" t="s">
         <v>8</v>
@@ -7477,13 +7492,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B206" t="s">
         <v>662</v>
       </c>
       <c r="C206" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E206" t="s">
         <v>8</v>
@@ -7491,13 +7506,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B207" t="s">
         <v>662</v>
       </c>
       <c r="C207" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E207" t="s">
         <v>8</v>
@@ -7505,13 +7520,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B208" t="s">
         <v>662</v>
       </c>
       <c r="C208" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E208" t="s">
         <v>8</v>
@@ -7519,13 +7534,13 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B209" t="s">
         <v>662</v>
       </c>
       <c r="C209" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E209" t="s">
         <v>8</v>
@@ -7533,13 +7548,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B210" t="s">
         <v>662</v>
       </c>
       <c r="C210" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E210" t="s">
         <v>8</v>
@@ -7547,13 +7562,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B211" t="s">
         <v>662</v>
       </c>
       <c r="C211" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E211" t="s">
         <v>8</v>
@@ -7561,13 +7576,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B212" t="s">
         <v>662</v>
       </c>
       <c r="C212" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E212" t="s">
         <v>8</v>
@@ -7575,13 +7590,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B213" t="s">
         <v>662</v>
       </c>
       <c r="C213" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E213" t="s">
         <v>8</v>
@@ -7589,13 +7604,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B214" t="s">
         <v>662</v>
       </c>
       <c r="C214" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E214" t="s">
         <v>8</v>
@@ -7603,13 +7618,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B215" t="s">
         <v>662</v>
       </c>
       <c r="C215" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E215" t="s">
         <v>8</v>
@@ -7617,13 +7632,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B216" t="s">
         <v>662</v>
       </c>
       <c r="C216" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E216" t="s">
         <v>8</v>
@@ -7631,13 +7646,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B217" t="s">
         <v>662</v>
       </c>
       <c r="C217" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E217" t="s">
         <v>8</v>
@@ -7645,13 +7660,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B218" t="s">
         <v>662</v>
       </c>
       <c r="C218" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E218" t="s">
         <v>8</v>
@@ -7659,13 +7674,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B219" t="s">
         <v>662</v>
       </c>
       <c r="C219" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E219" t="s">
         <v>8</v>
@@ -7673,13 +7688,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B220" t="s">
         <v>662</v>
       </c>
       <c r="C220" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E220" t="s">
         <v>8</v>
@@ -7687,13 +7702,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B221" t="s">
         <v>662</v>
       </c>
       <c r="C221" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E221" t="s">
         <v>8</v>
@@ -7701,13 +7716,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B222" t="s">
         <v>662</v>
       </c>
       <c r="C222" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E222" t="s">
         <v>8</v>
@@ -7715,13 +7730,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B223" t="s">
         <v>662</v>
       </c>
       <c r="C223" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E223" t="s">
         <v>8</v>
@@ -7729,13 +7744,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B224" t="s">
         <v>662</v>
       </c>
       <c r="C224" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E224" t="s">
         <v>8</v>
@@ -7743,13 +7758,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B225" t="s">
         <v>662</v>
       </c>
       <c r="C225" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E225" t="s">
         <v>8</v>
@@ -7757,13 +7772,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B226" t="s">
         <v>662</v>
       </c>
       <c r="C226" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E226" t="s">
         <v>8</v>
@@ -7771,13 +7786,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B227" t="s">
         <v>662</v>
       </c>
       <c r="C227" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E227" t="s">
         <v>8</v>
@@ -7785,13 +7800,13 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B228" t="s">
         <v>662</v>
       </c>
       <c r="C228" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E228" t="s">
         <v>8</v>
@@ -7799,13 +7814,13 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B229" t="s">
         <v>662</v>
       </c>
       <c r="C229" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E229" t="s">
         <v>8</v>
@@ -7813,13 +7828,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B230" t="s">
         <v>662</v>
       </c>
       <c r="C230" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E230" t="s">
         <v>8</v>
@@ -7827,13 +7842,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B231" t="s">
         <v>662</v>
       </c>
       <c r="C231" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E231" t="s">
         <v>8</v>
@@ -7841,13 +7856,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B232" t="s">
         <v>662</v>
       </c>
       <c r="C232" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E232" t="s">
         <v>8</v>
@@ -7855,13 +7870,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B233" t="s">
         <v>662</v>
       </c>
       <c r="C233" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E233" t="s">
         <v>8</v>
@@ -7869,13 +7884,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B234" t="s">
         <v>662</v>
       </c>
       <c r="C234" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E234" t="s">
         <v>8</v>
@@ -7883,13 +7898,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B235" t="s">
         <v>662</v>
       </c>
       <c r="C235" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E235" t="s">
         <v>8</v>
@@ -7897,13 +7912,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B236" t="s">
         <v>662</v>
       </c>
       <c r="C236" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E236" t="s">
         <v>8</v>
@@ -7911,13 +7926,13 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B237" t="s">
         <v>662</v>
       </c>
       <c r="C237" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E237" t="s">
         <v>8</v>
@@ -7925,13 +7940,13 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B238" t="s">
         <v>662</v>
       </c>
       <c r="C238" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E238" t="s">
         <v>8</v>
@@ -7939,13 +7954,13 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B239" t="s">
         <v>662</v>
       </c>
       <c r="C239" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E239" t="s">
         <v>8</v>
@@ -7953,13 +7968,13 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B240" t="s">
         <v>662</v>
       </c>
       <c r="C240" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E240" t="s">
         <v>8</v>
@@ -7967,13 +7982,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B241" t="s">
         <v>662</v>
       </c>
       <c r="C241" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E241" t="s">
         <v>8</v>
@@ -7981,13 +7996,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B242" t="s">
         <v>662</v>
       </c>
       <c r="C242" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E242" t="s">
         <v>8</v>
@@ -7995,13 +8010,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B243" t="s">
         <v>662</v>
       </c>
       <c r="C243" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E243" t="s">
         <v>8</v>
@@ -8009,13 +8024,13 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B244" t="s">
         <v>662</v>
       </c>
       <c r="C244" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E244" t="s">
         <v>8</v>
@@ -8023,13 +8038,13 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B245" t="s">
         <v>662</v>
       </c>
       <c r="C245" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E245" t="s">
         <v>8</v>
@@ -8037,13 +8052,13 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B246" t="s">
         <v>662</v>
       </c>
       <c r="C246" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E246" t="s">
         <v>8</v>
@@ -8051,13 +8066,13 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B247" t="s">
         <v>662</v>
       </c>
       <c r="C247" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E247" t="s">
         <v>8</v>
@@ -8065,13 +8080,13 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B248" t="s">
         <v>662</v>
       </c>
       <c r="C248" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E248" t="s">
         <v>8</v>
@@ -8079,13 +8094,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B249" t="s">
         <v>662</v>
       </c>
       <c r="C249" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E249" t="s">
         <v>8</v>
@@ -8093,13 +8108,13 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B250" t="s">
         <v>662</v>
       </c>
       <c r="C250" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E250" t="s">
         <v>8</v>
@@ -8107,13 +8122,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B251" t="s">
         <v>662</v>
       </c>
       <c r="C251" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E251" t="s">
         <v>8</v>
@@ -8121,13 +8136,13 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B252" t="s">
         <v>662</v>
       </c>
       <c r="C252" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E252" t="s">
         <v>8</v>
@@ -8135,13 +8150,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B253" t="s">
         <v>662</v>
       </c>
       <c r="C253" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E253" t="s">
         <v>8</v>
@@ -8149,13 +8164,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B254" t="s">
         <v>662</v>
       </c>
       <c r="C254" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E254" t="s">
         <v>8</v>
@@ -8163,13 +8178,13 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B255" t="s">
         <v>662</v>
       </c>
       <c r="C255" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E255" t="s">
         <v>8</v>
@@ -8177,13 +8192,13 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B256" t="s">
         <v>662</v>
       </c>
       <c r="C256" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E256" t="s">
         <v>8</v>
@@ -8191,13 +8206,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B257" t="s">
         <v>662</v>
       </c>
       <c r="C257" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E257" t="s">
         <v>8</v>
@@ -8205,13 +8220,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B258" t="s">
         <v>662</v>
       </c>
       <c r="C258" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E258" t="s">
         <v>8</v>
@@ -8219,13 +8234,13 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B259" t="s">
         <v>662</v>
       </c>
       <c r="C259" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E259" t="s">
         <v>8</v>
@@ -8233,13 +8248,13 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B260" t="s">
         <v>662</v>
       </c>
       <c r="C260" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E260" t="s">
         <v>8</v>
@@ -8247,13 +8262,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B261" t="s">
         <v>662</v>
       </c>
       <c r="C261" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E261" t="s">
         <v>8</v>
@@ -8261,13 +8276,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B262" t="s">
         <v>662</v>
       </c>
       <c r="C262" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E262" t="s">
         <v>8</v>
@@ -8275,13 +8290,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B263" t="s">
         <v>662</v>
       </c>
       <c r="C263" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E263" t="s">
         <v>8</v>
@@ -8289,13 +8304,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B264" t="s">
         <v>662</v>
       </c>
       <c r="C264" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E264" t="s">
         <v>8</v>
@@ -8303,13 +8318,13 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B265" t="s">
         <v>662</v>
       </c>
       <c r="C265" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E265" t="s">
         <v>8</v>
@@ -8317,13 +8332,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B266" t="s">
         <v>662</v>
       </c>
       <c r="C266" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E266" t="s">
         <v>8</v>
@@ -8331,13 +8346,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B267" t="s">
         <v>662</v>
       </c>
       <c r="C267" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E267" t="s">
         <v>8</v>
@@ -8345,13 +8360,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B268" t="s">
         <v>662</v>
       </c>
       <c r="C268" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E268" t="s">
         <v>8</v>
@@ -8359,13 +8374,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B269" t="s">
         <v>662</v>
       </c>
       <c r="C269" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E269" t="s">
         <v>8</v>
@@ -8373,13 +8388,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B270" t="s">
         <v>662</v>
       </c>
       <c r="C270" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E270" t="s">
         <v>8</v>
@@ -8387,13 +8402,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B271" t="s">
         <v>662</v>
       </c>
       <c r="C271" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E271" t="s">
         <v>8</v>
@@ -8401,13 +8416,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B272" t="s">
         <v>662</v>
       </c>
       <c r="C272" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E272" t="s">
         <v>8</v>
@@ -8415,13 +8430,13 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B273" t="s">
         <v>662</v>
       </c>
       <c r="C273" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E273" t="s">
         <v>8</v>
@@ -8429,13 +8444,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B274" t="s">
         <v>662</v>
       </c>
       <c r="C274" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E274" t="s">
         <v>8</v>
@@ -8443,13 +8458,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B275" t="s">
         <v>662</v>
       </c>
       <c r="C275" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E275" t="s">
         <v>8</v>
@@ -8457,13 +8472,13 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B276" t="s">
         <v>662</v>
       </c>
       <c r="C276" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E276" t="s">
         <v>8</v>
@@ -8471,13 +8486,13 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B277" t="s">
         <v>662</v>
       </c>
       <c r="C277" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E277" t="s">
         <v>8</v>
@@ -8485,13 +8500,13 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B278" t="s">
         <v>662</v>
       </c>
       <c r="C278" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E278" t="s">
         <v>8</v>
@@ -8499,13 +8514,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B279" t="s">
         <v>662</v>
       </c>
       <c r="C279" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E279" t="s">
         <v>8</v>
@@ -8513,13 +8528,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B280" t="s">
         <v>662</v>
       </c>
       <c r="C280" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E280" t="s">
         <v>8</v>
@@ -8527,13 +8542,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B281" t="s">
         <v>662</v>
       </c>
       <c r="C281" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E281" t="s">
         <v>8</v>
@@ -8541,13 +8556,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B282" t="s">
         <v>662</v>
       </c>
       <c r="C282" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E282" t="s">
         <v>8</v>
@@ -8555,13 +8570,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B283" t="s">
         <v>662</v>
       </c>
       <c r="C283" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E283" t="s">
         <v>8</v>
@@ -8569,13 +8584,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B284" t="s">
         <v>662</v>
       </c>
       <c r="C284" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E284" t="s">
         <v>8</v>
@@ -8583,13 +8598,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B285" t="s">
         <v>662</v>
       </c>
       <c r="C285" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E285" t="s">
         <v>8</v>
@@ -8597,13 +8612,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B286" t="s">
         <v>662</v>
       </c>
       <c r="C286" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E286" t="s">
         <v>8</v>
@@ -8611,13 +8626,13 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B287" t="s">
         <v>662</v>
       </c>
       <c r="C287" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E287" t="s">
         <v>8</v>
@@ -8625,13 +8640,13 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B288" t="s">
         <v>662</v>
       </c>
       <c r="C288" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E288" t="s">
         <v>8</v>
@@ -8639,13 +8654,13 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B289" t="s">
         <v>662</v>
       </c>
       <c r="C289" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E289" t="s">
         <v>8</v>
@@ -8653,13 +8668,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B290" t="s">
         <v>662</v>
       </c>
       <c r="C290" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E290" t="s">
         <v>8</v>
@@ -8667,13 +8682,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B291" t="s">
         <v>662</v>
       </c>
       <c r="C291" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E291" t="s">
         <v>8</v>
@@ -8681,13 +8696,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B292" t="s">
         <v>662</v>
       </c>
       <c r="C292" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E292" t="s">
         <v>8</v>
@@ -8695,13 +8710,13 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B293" t="s">
         <v>662</v>
       </c>
       <c r="C293" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E293" t="s">
         <v>8</v>
@@ -8709,13 +8724,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B294" t="s">
         <v>662</v>
       </c>
       <c r="C294" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E294" t="s">
         <v>8</v>
@@ -8723,13 +8738,13 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B295" t="s">
         <v>662</v>
       </c>
       <c r="C295" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E295" t="s">
         <v>8</v>
@@ -8737,13 +8752,13 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B296" t="s">
         <v>662</v>
       </c>
       <c r="C296" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E296" t="s">
         <v>8</v>
@@ -8751,13 +8766,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B297" t="s">
         <v>662</v>
       </c>
       <c r="C297" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E297" t="s">
         <v>8</v>
@@ -8765,13 +8780,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B298" t="s">
         <v>662</v>
       </c>
       <c r="C298" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E298" t="s">
         <v>8</v>
@@ -8779,13 +8794,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B299" t="s">
         <v>662</v>
       </c>
       <c r="C299" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E299" t="s">
         <v>8</v>
@@ -8793,13 +8808,13 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B300" t="s">
         <v>662</v>
       </c>
       <c r="C300" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E300" t="s">
         <v>8</v>
@@ -8807,13 +8822,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B301" t="s">
         <v>662</v>
       </c>
       <c r="C301" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E301" t="s">
         <v>8</v>
@@ -8821,13 +8836,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B302" t="s">
         <v>662</v>
       </c>
       <c r="C302" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E302" t="s">
         <v>8</v>
@@ -8835,13 +8850,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B303" t="s">
         <v>662</v>
       </c>
       <c r="C303" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E303" t="s">
         <v>8</v>
@@ -8849,13 +8864,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B304" t="s">
         <v>662</v>
       </c>
       <c r="C304" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E304" t="s">
         <v>8</v>
@@ -8863,13 +8878,13 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B305" t="s">
         <v>662</v>
       </c>
       <c r="C305" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E305" t="s">
         <v>8</v>
@@ -8877,13 +8892,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B306" t="s">
         <v>662</v>
       </c>
       <c r="C306" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E306" t="s">
         <v>8</v>
@@ -8891,13 +8906,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B307" t="s">
         <v>662</v>
       </c>
       <c r="C307" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E307" t="s">
         <v>8</v>
@@ -8905,13 +8920,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B308" t="s">
         <v>662</v>
       </c>
       <c r="C308" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E308" t="s">
         <v>8</v>
@@ -8919,13 +8934,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B309" t="s">
         <v>662</v>
       </c>
       <c r="C309" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E309" t="s">
         <v>8</v>
@@ -8933,13 +8948,13 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B310" t="s">
         <v>662</v>
       </c>
       <c r="C310" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E310" t="s">
         <v>8</v>
@@ -8947,13 +8962,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B311" t="s">
         <v>662</v>
       </c>
       <c r="C311" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E311" t="s">
         <v>8</v>
@@ -8961,13 +8976,13 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B312" t="s">
         <v>662</v>
       </c>
       <c r="C312" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E312" t="s">
         <v>8</v>
@@ -8975,13 +8990,13 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B313" t="s">
         <v>662</v>
       </c>
       <c r="C313" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E313" t="s">
         <v>8</v>
@@ -8989,13 +9004,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B314" t="s">
         <v>662</v>
       </c>
       <c r="C314" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E314" t="s">
         <v>8</v>
@@ -9003,13 +9018,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B315" t="s">
         <v>662</v>
       </c>
       <c r="C315" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E315" t="s">
         <v>8</v>
@@ -9017,13 +9032,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B316" t="s">
         <v>662</v>
       </c>
       <c r="C316" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E316" t="s">
         <v>8</v>
@@ -9031,13 +9046,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B317" t="s">
         <v>662</v>
       </c>
       <c r="C317" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E317" t="s">
         <v>8</v>
@@ -9045,13 +9060,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B318" t="s">
         <v>662</v>
       </c>
       <c r="C318" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E318" t="s">
         <v>8</v>
@@ -9059,13 +9074,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B319" t="s">
         <v>662</v>
       </c>
       <c r="C319" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E319" t="s">
         <v>8</v>
@@ -9073,13 +9088,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B320" t="s">
         <v>662</v>
       </c>
       <c r="C320" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E320" t="s">
         <v>8</v>
@@ -9087,13 +9102,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B321" t="s">
         <v>662</v>
       </c>
       <c r="C321" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E321" t="s">
         <v>8</v>
@@ -9101,13 +9116,13 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B322" t="s">
         <v>662</v>
       </c>
       <c r="C322" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E322" t="s">
         <v>8</v>
@@ -9115,13 +9130,13 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B323" t="s">
         <v>662</v>
       </c>
       <c r="C323" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E323" t="s">
         <v>8</v>
@@ -9129,13 +9144,13 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B324" t="s">
         <v>662</v>
       </c>
       <c r="C324" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E324" t="s">
         <v>8</v>
@@ -9143,13 +9158,13 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B325" t="s">
         <v>662</v>
       </c>
       <c r="C325" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E325" t="s">
         <v>8</v>
@@ -9157,13 +9172,13 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B326" t="s">
         <v>662</v>
       </c>
       <c r="C326" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E326" t="s">
         <v>8</v>
@@ -9171,13 +9186,13 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B327" t="s">
         <v>662</v>
       </c>
       <c r="C327" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E327" t="s">
         <v>8</v>
@@ -9185,13 +9200,13 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B328" t="s">
         <v>662</v>
       </c>
       <c r="C328" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E328" t="s">
         <v>8</v>
@@ -9199,13 +9214,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B329" t="s">
         <v>662</v>
       </c>
       <c r="C329" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E329" t="s">
         <v>8</v>
@@ -9213,13 +9228,13 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B330" t="s">
         <v>662</v>
       </c>
       <c r="C330" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E330" t="s">
         <v>8</v>
@@ -9227,13 +9242,13 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B331" t="s">
         <v>662</v>
       </c>
       <c r="C331" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E331" t="s">
         <v>8</v>
@@ -9241,13 +9256,13 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B332" t="s">
         <v>662</v>
       </c>
       <c r="C332" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E332" t="s">
         <v>8</v>
@@ -9255,13 +9270,13 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B333" t="s">
         <v>662</v>
       </c>
       <c r="C333" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E333" t="s">
         <v>8</v>
@@ -9269,13 +9284,13 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B334" t="s">
         <v>662</v>
       </c>
       <c r="C334" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E334" t="s">
         <v>8</v>
@@ -9283,13 +9298,13 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B335" t="s">
         <v>662</v>
       </c>
       <c r="C335" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E335" t="s">
         <v>8</v>
@@ -9297,13 +9312,13 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B336" t="s">
         <v>662</v>
       </c>
       <c r="C336" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E336" t="s">
         <v>8</v>
@@ -9311,13 +9326,13 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B337" t="s">
         <v>662</v>
       </c>
       <c r="C337" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E337" t="s">
         <v>8</v>
@@ -9325,13 +9340,13 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B338" t="s">
         <v>662</v>
       </c>
       <c r="C338" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E338" t="s">
         <v>8</v>
@@ -9339,13 +9354,13 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B339" t="s">
         <v>662</v>
       </c>
       <c r="C339" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E339" t="s">
         <v>8</v>
@@ -9353,13 +9368,13 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B340" t="s">
         <v>662</v>
       </c>
       <c r="C340" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E340" t="s">
         <v>8</v>
@@ -9367,13 +9382,13 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B341" t="s">
         <v>662</v>
       </c>
       <c r="C341" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E341" t="s">
         <v>8</v>
@@ -9381,13 +9396,13 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B342" t="s">
         <v>662</v>
       </c>
       <c r="C342" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E342" t="s">
         <v>8</v>
@@ -9395,13 +9410,13 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B343" t="s">
         <v>662</v>
       </c>
       <c r="C343" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E343" t="s">
         <v>8</v>
@@ -9409,13 +9424,13 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B344" t="s">
         <v>662</v>
       </c>
       <c r="C344" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E344" t="s">
         <v>8</v>
@@ -9423,13 +9438,13 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B345" t="s">
         <v>662</v>
       </c>
       <c r="C345" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E345" t="s">
         <v>8</v>
@@ -9437,13 +9452,13 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B346" t="s">
         <v>662</v>
       </c>
       <c r="C346" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E346" t="s">
         <v>8</v>
@@ -9451,13 +9466,13 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B347" t="s">
         <v>662</v>
       </c>
       <c r="C347" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E347" t="s">
         <v>8</v>
@@ -9465,13 +9480,13 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B348" t="s">
         <v>662</v>
       </c>
       <c r="C348" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E348" t="s">
         <v>8</v>
@@ -9479,13 +9494,13 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B349" t="s">
         <v>662</v>
       </c>
       <c r="C349" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E349" t="s">
         <v>8</v>
@@ -9493,13 +9508,13 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B350" t="s">
         <v>662</v>
       </c>
       <c r="C350" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E350" t="s">
         <v>8</v>
@@ -9507,13 +9522,13 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B351" t="s">
         <v>662</v>
       </c>
       <c r="C351" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E351" t="s">
         <v>8</v>
@@ -9521,13 +9536,13 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B352" t="s">
         <v>662</v>
       </c>
       <c r="C352" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E352" t="s">
         <v>8</v>
@@ -9535,13 +9550,13 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B353" t="s">
         <v>662</v>
       </c>
       <c r="C353" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E353" t="s">
         <v>8</v>
@@ -9549,13 +9564,13 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B354" t="s">
         <v>662</v>
       </c>
       <c r="C354" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E354" t="s">
         <v>8</v>
@@ -9563,13 +9578,13 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B355" t="s">
         <v>662</v>
       </c>
       <c r="C355" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E355" t="s">
         <v>8</v>
@@ -9577,13 +9592,13 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B356" t="s">
         <v>662</v>
       </c>
       <c r="C356" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E356" t="s">
         <v>8</v>
@@ -9591,13 +9606,13 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B357" t="s">
         <v>662</v>
       </c>
       <c r="C357" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E357" t="s">
         <v>8</v>
@@ -9605,13 +9620,13 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B358" t="s">
         <v>662</v>
       </c>
       <c r="C358" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E358" t="s">
         <v>8</v>
@@ -9619,13 +9634,13 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B359" t="s">
         <v>662</v>
       </c>
       <c r="C359" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E359" t="s">
         <v>8</v>
@@ -9633,13 +9648,13 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B360" t="s">
         <v>662</v>
       </c>
       <c r="C360" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E360" t="s">
         <v>8</v>
@@ -9647,13 +9662,13 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B361" t="s">
         <v>662</v>
       </c>
       <c r="C361" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E361" t="s">
         <v>8</v>
@@ -9661,13 +9676,13 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B362" t="s">
         <v>662</v>
       </c>
       <c r="C362" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E362" t="s">
         <v>8</v>
@@ -9675,13 +9690,13 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B363" t="s">
         <v>662</v>
       </c>
       <c r="C363" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E363" t="s">
         <v>8</v>
@@ -9689,13 +9704,13 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B364" t="s">
         <v>662</v>
       </c>
       <c r="C364" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E364" t="s">
         <v>8</v>
@@ -9703,13 +9718,13 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B365" t="s">
         <v>662</v>
       </c>
       <c r="C365" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E365" t="s">
         <v>8</v>
@@ -9717,13 +9732,13 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B366" t="s">
         <v>662</v>
       </c>
       <c r="C366" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E366" t="s">
         <v>8</v>
@@ -9731,13 +9746,13 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B367" t="s">
         <v>662</v>
       </c>
       <c r="C367" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E367" t="s">
         <v>8</v>
@@ -9745,13 +9760,13 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B368" t="s">
         <v>662</v>
       </c>
       <c r="C368" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E368" t="s">
         <v>8</v>
@@ -9759,13 +9774,13 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B369" t="s">
         <v>662</v>
       </c>
       <c r="C369" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E369" t="s">
         <v>8</v>
@@ -9773,13 +9788,13 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B370" t="s">
         <v>662</v>
       </c>
       <c r="C370" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E370" t="s">
         <v>8</v>
@@ -9787,13 +9802,13 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B371" t="s">
         <v>662</v>
       </c>
       <c r="C371" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E371" t="s">
         <v>8</v>
@@ -9801,13 +9816,13 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B372" t="s">
         <v>662</v>
       </c>
       <c r="C372" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E372" t="s">
         <v>8</v>
@@ -9815,13 +9830,13 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B373" t="s">
         <v>662</v>
       </c>
       <c r="C373" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E373" t="s">
         <v>8</v>
@@ -9829,13 +9844,13 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B374" t="s">
         <v>662</v>
       </c>
       <c r="C374" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E374" t="s">
         <v>8</v>
@@ -9843,13 +9858,13 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B375" t="s">
         <v>662</v>
       </c>
       <c r="C375" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E375" t="s">
         <v>8</v>
@@ -9857,13 +9872,13 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B376" t="s">
         <v>662</v>
       </c>
       <c r="C376" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E376" t="s">
         <v>8</v>
@@ -9871,13 +9886,13 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B377" t="s">
         <v>662</v>
       </c>
       <c r="C377" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E377" t="s">
         <v>8</v>
@@ -9885,13 +9900,13 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B378" t="s">
         <v>662</v>
       </c>
       <c r="C378" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E378" t="s">
         <v>8</v>
@@ -9899,13 +9914,13 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B379" t="s">
         <v>662</v>
       </c>
       <c r="C379" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E379" t="s">
         <v>8</v>
@@ -9913,13 +9928,13 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B380" t="s">
         <v>662</v>
       </c>
       <c r="C380" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E380" t="s">
         <v>8</v>
@@ -9927,13 +9942,13 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B381" t="s">
         <v>662</v>
       </c>
       <c r="C381" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E381" t="s">
         <v>8</v>
@@ -9941,13 +9956,13 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B382" t="s">
         <v>662</v>
       </c>
       <c r="C382" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E382" t="s">
         <v>8</v>
@@ -9955,13 +9970,13 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B383" t="s">
         <v>662</v>
       </c>
       <c r="C383" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E383" t="s">
         <v>8</v>
@@ -9969,13 +9984,13 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B384" t="s">
         <v>662</v>
       </c>
       <c r="C384" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E384" t="s">
         <v>8</v>
@@ -9983,13 +9998,13 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B385" t="s">
         <v>662</v>
       </c>
       <c r="C385" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E385" t="s">
         <v>8</v>
@@ -9997,13 +10012,13 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B386" t="s">
         <v>662</v>
       </c>
       <c r="C386" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E386" t="s">
         <v>8</v>
@@ -10011,13 +10026,13 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B387" t="s">
         <v>662</v>
       </c>
       <c r="C387" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E387" t="s">
         <v>8</v>
@@ -10025,13 +10040,13 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B388" t="s">
         <v>662</v>
       </c>
       <c r="C388" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E388" t="s">
         <v>8</v>
@@ -10039,13 +10054,13 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B389" t="s">
         <v>662</v>
       </c>
       <c r="C389" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E389" t="s">
         <v>8</v>
@@ -10053,13 +10068,13 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B390" t="s">
         <v>662</v>
       </c>
       <c r="C390" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E390" t="s">
         <v>8</v>
@@ -10067,13 +10082,13 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B391" t="s">
         <v>662</v>
       </c>
       <c r="C391" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E391" t="s">
         <v>8</v>
@@ -10081,13 +10096,13 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B392" t="s">
         <v>662</v>
       </c>
       <c r="C392" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E392" t="s">
         <v>8</v>
@@ -10095,13 +10110,13 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B393" t="s">
         <v>662</v>
       </c>
       <c r="C393" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E393" t="s">
         <v>8</v>
@@ -10109,13 +10124,13 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B394" t="s">
         <v>662</v>
       </c>
       <c r="C394" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E394" t="s">
         <v>8</v>
@@ -10123,13 +10138,13 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B395" t="s">
         <v>662</v>
       </c>
       <c r="C395" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E395" t="s">
         <v>8</v>
@@ -10137,13 +10152,13 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B396" t="s">
         <v>662</v>
       </c>
       <c r="C396" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E396" t="s">
         <v>8</v>
@@ -10151,13 +10166,13 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B397" t="s">
         <v>662</v>
       </c>
       <c r="C397" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E397" t="s">
         <v>8</v>
@@ -10165,13 +10180,13 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B398" t="s">
         <v>662</v>
       </c>
       <c r="C398" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E398" t="s">
         <v>8</v>
@@ -10179,13 +10194,13 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B399" t="s">
         <v>662</v>
       </c>
       <c r="C399" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E399" t="s">
         <v>8</v>
@@ -10193,13 +10208,13 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B400" t="s">
         <v>662</v>
       </c>
       <c r="C400" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E400" t="s">
         <v>8</v>
@@ -10207,13 +10222,13 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B401" t="s">
         <v>662</v>
       </c>
       <c r="C401" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E401" t="s">
         <v>8</v>
@@ -10221,13 +10236,13 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B402" t="s">
         <v>662</v>
       </c>
       <c r="C402" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E402" t="s">
         <v>8</v>
@@ -10235,13 +10250,13 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B403" t="s">
         <v>662</v>
       </c>
       <c r="C403" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E403" t="s">
         <v>8</v>
@@ -10249,13 +10264,13 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B404" t="s">
         <v>662</v>
       </c>
       <c r="C404" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E404" t="s">
         <v>8</v>
@@ -10263,13 +10278,13 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B405" t="s">
         <v>662</v>
       </c>
       <c r="C405" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E405" t="s">
         <v>8</v>
@@ -10277,13 +10292,13 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B406" t="s">
         <v>662</v>
       </c>
       <c r="C406" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E406" t="s">
         <v>8</v>
@@ -10291,13 +10306,13 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B407" t="s">
         <v>662</v>
       </c>
       <c r="C407" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E407" t="s">
         <v>8</v>
@@ -10305,13 +10320,13 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B408" t="s">
         <v>662</v>
       </c>
       <c r="C408" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E408" t="s">
         <v>8</v>
@@ -10319,13 +10334,13 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B409" t="s">
         <v>662</v>
       </c>
       <c r="C409" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E409" t="s">
         <v>8</v>
@@ -10333,13 +10348,13 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B410" t="s">
         <v>662</v>
       </c>
       <c r="C410" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E410" t="s">
         <v>8</v>
@@ -10347,13 +10362,13 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B411" t="s">
         <v>662</v>
       </c>
       <c r="C411" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E411" t="s">
         <v>8</v>
@@ -10361,13 +10376,13 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B412" t="s">
         <v>662</v>
       </c>
       <c r="C412" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E412" t="s">
         <v>8</v>
@@ -10375,13 +10390,13 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B413" t="s">
         <v>662</v>
       </c>
       <c r="C413" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E413" t="s">
         <v>8</v>
@@ -10389,13 +10404,13 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B414" t="s">
         <v>662</v>
       </c>
       <c r="C414" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E414" t="s">
         <v>8</v>
@@ -10403,13 +10418,13 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B415" t="s">
         <v>662</v>
       </c>
       <c r="C415" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E415" t="s">
         <v>8</v>
@@ -10417,13 +10432,13 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B416" t="s">
         <v>662</v>
       </c>
       <c r="C416" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E416" t="s">
         <v>8</v>
@@ -10431,13 +10446,13 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B417" t="s">
         <v>662</v>
       </c>
       <c r="C417" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E417" t="s">
         <v>8</v>
@@ -10445,13 +10460,13 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B418" t="s">
         <v>662</v>
       </c>
       <c r="C418" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E418" t="s">
         <v>8</v>
@@ -10459,13 +10474,13 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B419" t="s">
         <v>662</v>
       </c>
       <c r="C419" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E419" t="s">
         <v>8</v>
@@ -10473,13 +10488,13 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B420" t="s">
         <v>662</v>
       </c>
       <c r="C420" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E420" t="s">
         <v>8</v>
@@ -10487,13 +10502,13 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B421" t="s">
         <v>662</v>
       </c>
       <c r="C421" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E421" t="s">
         <v>8</v>
@@ -10501,13 +10516,13 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B422" t="s">
         <v>662</v>
       </c>
       <c r="C422" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E422" t="s">
         <v>8</v>
@@ -10515,13 +10530,13 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B423" t="s">
         <v>662</v>
       </c>
       <c r="C423" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E423" t="s">
         <v>8</v>
@@ -10529,13 +10544,13 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B424" t="s">
         <v>662</v>
       </c>
       <c r="C424" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E424" t="s">
         <v>8</v>
@@ -10543,13 +10558,13 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B425" t="s">
         <v>662</v>
       </c>
       <c r="C425" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E425" t="s">
         <v>8</v>
@@ -10557,13 +10572,13 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B426" t="s">
         <v>662</v>
       </c>
       <c r="C426" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E426" t="s">
         <v>8</v>
@@ -10571,13 +10586,13 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B427" t="s">
         <v>662</v>
       </c>
       <c r="C427" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E427" t="s">
         <v>8</v>
@@ -10585,13 +10600,13 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B428" t="s">
         <v>662</v>
       </c>
       <c r="C428" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E428" t="s">
         <v>8</v>
@@ -10599,13 +10614,13 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B429" t="s">
         <v>662</v>
       </c>
       <c r="C429" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E429" t="s">
         <v>8</v>
@@ -10613,13 +10628,13 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B430" t="s">
         <v>662</v>
       </c>
       <c r="C430" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E430" t="s">
         <v>8</v>
@@ -10627,13 +10642,13 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B431" t="s">
         <v>662</v>
       </c>
       <c r="C431" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E431" t="s">
         <v>8</v>
@@ -10641,13 +10656,13 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B432" t="s">
         <v>662</v>
       </c>
       <c r="C432" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E432" t="s">
         <v>8</v>
@@ -10655,13 +10670,13 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B433" t="s">
         <v>662</v>
       </c>
       <c r="C433" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E433" t="s">
         <v>8</v>
@@ -10669,13 +10684,13 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B434" t="s">
         <v>662</v>
       </c>
       <c r="C434" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E434" t="s">
         <v>8</v>
@@ -10683,13 +10698,13 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B435" t="s">
         <v>662</v>
       </c>
       <c r="C435" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E435" t="s">
         <v>8</v>
@@ -10697,13 +10712,13 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B436" t="s">
         <v>662</v>
       </c>
       <c r="C436" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E436" t="s">
         <v>8</v>
@@ -10711,13 +10726,13 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B437" t="s">
         <v>662</v>
       </c>
       <c r="C437" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E437" t="s">
         <v>8</v>
@@ -10725,13 +10740,13 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B438" t="s">
         <v>662</v>
       </c>
       <c r="C438" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E438" t="s">
         <v>8</v>
@@ -10739,13 +10754,13 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B439" t="s">
         <v>662</v>
       </c>
       <c r="C439" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E439" t="s">
         <v>8</v>
@@ -10753,13 +10768,13 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B440" t="s">
         <v>662</v>
       </c>
       <c r="C440" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E440" t="s">
         <v>8</v>
@@ -10767,13 +10782,13 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B441" t="s">
         <v>662</v>
       </c>
       <c r="C441" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E441" t="s">
         <v>8</v>
@@ -10781,13 +10796,13 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B442" t="s">
         <v>662</v>
       </c>
       <c r="C442" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E442" t="s">
         <v>8</v>
@@ -10795,13 +10810,13 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B443" t="s">
         <v>662</v>
       </c>
       <c r="C443" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E443" t="s">
         <v>8</v>
@@ -10809,13 +10824,13 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B444" t="s">
         <v>662</v>
       </c>
       <c r="C444" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E444" t="s">
         <v>8</v>
@@ -10823,13 +10838,13 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B445" t="s">
         <v>662</v>
       </c>
       <c r="C445" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E445" t="s">
         <v>8</v>
@@ -10837,13 +10852,13 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B446" t="s">
         <v>662</v>
       </c>
       <c r="C446" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E446" t="s">
         <v>8</v>
@@ -10851,13 +10866,13 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B447" t="s">
         <v>662</v>
       </c>
       <c r="C447" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E447" t="s">
         <v>8</v>
@@ -10865,13 +10880,13 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B448" t="s">
         <v>662</v>
       </c>
       <c r="C448" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E448" t="s">
         <v>8</v>
@@ -10879,13 +10894,13 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B449" t="s">
         <v>662</v>
       </c>
       <c r="C449" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E449" t="s">
         <v>8</v>
@@ -10893,13 +10908,13 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B450" t="s">
         <v>662</v>
       </c>
       <c r="C450" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E450" t="s">
         <v>8</v>
@@ -10907,13 +10922,13 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B451" t="s">
         <v>662</v>
       </c>
       <c r="C451" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E451" t="s">
         <v>8</v>
@@ -10921,13 +10936,13 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B452" t="s">
         <v>662</v>
       </c>
       <c r="C452" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E452" t="s">
         <v>8</v>
@@ -10935,13 +10950,13 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B453" t="s">
         <v>662</v>
       </c>
       <c r="C453" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E453" t="s">
         <v>8</v>
@@ -10949,13 +10964,13 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B454" t="s">
         <v>662</v>
       </c>
       <c r="C454" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E454" t="s">
         <v>8</v>
@@ -10963,13 +10978,13 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B455" t="s">
         <v>662</v>
       </c>
       <c r="C455" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E455" t="s">
         <v>8</v>
@@ -10977,13 +10992,13 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B456" t="s">
         <v>662</v>
       </c>
       <c r="C456" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E456" t="s">
         <v>8</v>
@@ -10991,13 +11006,13 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B457" t="s">
         <v>662</v>
       </c>
       <c r="C457" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E457" t="s">
         <v>8</v>
@@ -11005,13 +11020,13 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B458" t="s">
         <v>662</v>
       </c>
       <c r="C458" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E458" t="s">
         <v>8</v>
@@ -11019,13 +11034,13 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B459" t="s">
         <v>662</v>
       </c>
       <c r="C459" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E459" t="s">
         <v>8</v>
@@ -11033,13 +11048,13 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B460" t="s">
         <v>662</v>
       </c>
       <c r="C460" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E460" t="s">
         <v>8</v>
@@ -11047,13 +11062,13 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B461" t="s">
         <v>662</v>
       </c>
       <c r="C461" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E461" t="s">
         <v>8</v>
@@ -11061,13 +11076,13 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B462" t="s">
         <v>662</v>
       </c>
       <c r="C462" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E462" t="s">
         <v>8</v>
@@ -11075,13 +11090,13 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B463" t="s">
         <v>662</v>
       </c>
       <c r="C463" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E463" t="s">
         <v>8</v>
@@ -11089,13 +11104,13 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B464" t="s">
         <v>662</v>
       </c>
       <c r="C464" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E464" t="s">
         <v>8</v>
@@ -11103,13 +11118,13 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B465" t="s">
         <v>662</v>
       </c>
       <c r="C465" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E465" t="s">
         <v>8</v>
@@ -11117,13 +11132,13 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B466" t="s">
         <v>662</v>
       </c>
       <c r="C466" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E466" t="s">
         <v>8</v>
@@ -11131,13 +11146,13 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B467" t="s">
         <v>662</v>
       </c>
       <c r="C467" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E467" t="s">
         <v>8</v>
@@ -11145,13 +11160,13 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B468" t="s">
         <v>662</v>
       </c>
       <c r="C468" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E468" t="s">
         <v>8</v>
@@ -11159,13 +11174,13 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B469" t="s">
         <v>662</v>
       </c>
       <c r="C469" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E469" t="s">
         <v>8</v>
@@ -11173,13 +11188,13 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B470" t="s">
         <v>662</v>
       </c>
       <c r="C470" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E470" t="s">
         <v>8</v>
@@ -11187,13 +11202,13 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B471" t="s">
         <v>662</v>
       </c>
       <c r="C471" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E471" t="s">
         <v>8</v>
@@ -11201,13 +11216,13 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B472" t="s">
         <v>662</v>
       </c>
       <c r="C472" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E472" t="s">
         <v>8</v>
@@ -11215,13 +11230,13 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B473" t="s">
         <v>662</v>
       </c>
       <c r="C473" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E473" t="s">
         <v>8</v>
@@ -11229,13 +11244,13 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B474" t="s">
         <v>662</v>
       </c>
       <c r="C474" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E474" t="s">
         <v>8</v>
@@ -11243,13 +11258,13 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B475" t="s">
         <v>662</v>
       </c>
       <c r="C475" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E475" t="s">
         <v>8</v>
@@ -11257,13 +11272,13 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B476" t="s">
         <v>662</v>
       </c>
       <c r="C476" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E476" t="s">
         <v>8</v>
@@ -11271,13 +11286,13 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B477" t="s">
         <v>662</v>
       </c>
       <c r="C477" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E477" t="s">
         <v>8</v>
@@ -11285,13 +11300,13 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B478" t="s">
         <v>662</v>
       </c>
       <c r="C478" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E478" t="s">
         <v>8</v>
@@ -11299,13 +11314,13 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B479" t="s">
         <v>662</v>
       </c>
       <c r="C479" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E479" t="s">
         <v>8</v>
@@ -11313,13 +11328,13 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B480" t="s">
         <v>662</v>
       </c>
       <c r="C480" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E480" t="s">
         <v>8</v>
@@ -11327,13 +11342,13 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B481" t="s">
         <v>662</v>
       </c>
       <c r="C481" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E481" t="s">
         <v>8</v>
@@ -11341,13 +11356,13 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B482" t="s">
         <v>662</v>
       </c>
       <c r="C482" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E482" t="s">
         <v>8</v>
@@ -11355,13 +11370,13 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B483" t="s">
         <v>662</v>
       </c>
       <c r="C483" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E483" t="s">
         <v>8</v>
@@ -11369,13 +11384,13 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B484" t="s">
         <v>662</v>
       </c>
       <c r="C484" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E484" t="s">
         <v>8</v>
@@ -11383,13 +11398,13 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B485" t="s">
         <v>662</v>
       </c>
       <c r="C485" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E485" t="s">
         <v>8</v>
@@ -11397,13 +11412,13 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B486" t="s">
         <v>662</v>
       </c>
       <c r="C486" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E486" t="s">
         <v>8</v>
@@ -11411,13 +11426,13 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B487" t="s">
         <v>662</v>
       </c>
       <c r="C487" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E487" t="s">
         <v>8</v>
@@ -11425,13 +11440,13 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B488" t="s">
         <v>662</v>
       </c>
       <c r="C488" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E488" t="s">
         <v>8</v>
@@ -11439,13 +11454,13 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B489" t="s">
         <v>662</v>
       </c>
       <c r="C489" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E489" t="s">
         <v>8</v>
@@ -11453,13 +11468,13 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B490" t="s">
         <v>662</v>
       </c>
       <c r="C490" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E490" t="s">
         <v>8</v>
@@ -11467,13 +11482,13 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B491" t="s">
         <v>662</v>
       </c>
       <c r="C491" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E491" t="s">
         <v>8</v>
@@ -11481,13 +11496,13 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B492" t="s">
         <v>662</v>
       </c>
       <c r="C492" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E492" t="s">
         <v>8</v>
@@ -11495,13 +11510,13 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B493" t="s">
         <v>662</v>
       </c>
       <c r="C493" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E493" t="s">
         <v>8</v>
@@ -11509,13 +11524,13 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B494" t="s">
         <v>662</v>
       </c>
       <c r="C494" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E494" t="s">
         <v>8</v>
@@ -11523,13 +11538,13 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B495" t="s">
         <v>662</v>
       </c>
       <c r="C495" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E495" t="s">
         <v>8</v>
@@ -11537,13 +11552,13 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B496" t="s">
         <v>662</v>
       </c>
       <c r="C496" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E496" t="s">
         <v>8</v>
@@ -11551,13 +11566,13 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B497" t="s">
         <v>662</v>
       </c>
       <c r="C497" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E497" t="s">
         <v>8</v>
@@ -11565,13 +11580,13 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B498" t="s">
         <v>662</v>
       </c>
       <c r="C498" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E498" t="s">
         <v>8</v>
@@ -11579,13 +11594,13 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B499" t="s">
         <v>662</v>
       </c>
       <c r="C499" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E499" t="s">
         <v>8</v>
@@ -11593,13 +11608,13 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B500" t="s">
         <v>662</v>
       </c>
       <c r="C500" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E500" t="s">
         <v>8</v>
@@ -11607,13 +11622,13 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B501" t="s">
         <v>662</v>
       </c>
       <c r="C501" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E501" t="s">
         <v>8</v>
@@ -11621,13 +11636,13 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B502" t="s">
         <v>662</v>
       </c>
       <c r="C502" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E502" t="s">
         <v>8</v>
@@ -11635,13 +11650,13 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B503" t="s">
         <v>662</v>
       </c>
       <c r="C503" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E503" t="s">
         <v>8</v>
@@ -11649,13 +11664,13 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B504" t="s">
         <v>662</v>
       </c>
       <c r="C504" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E504" t="s">
         <v>8</v>
@@ -11663,13 +11678,13 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B505" t="s">
         <v>662</v>
       </c>
       <c r="C505" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E505" t="s">
         <v>8</v>
@@ -11677,13 +11692,13 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B506" t="s">
         <v>662</v>
       </c>
       <c r="C506" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E506" t="s">
         <v>8</v>
@@ -11691,13 +11706,13 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B507" t="s">
         <v>662</v>
       </c>
       <c r="C507" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E507" t="s">
         <v>8</v>
@@ -11705,13 +11720,13 @@
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B508" t="s">
         <v>662</v>
       </c>
       <c r="C508" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E508" t="s">
         <v>8</v>
@@ -11719,13 +11734,13 @@
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B509" t="s">
         <v>662</v>
       </c>
       <c r="C509" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E509" t="s">
         <v>8</v>
@@ -11733,13 +11748,13 @@
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B510" t="s">
         <v>662</v>
       </c>
       <c r="C510" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E510" t="s">
         <v>8</v>
@@ -11747,13 +11762,13 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B511" t="s">
         <v>662</v>
       </c>
       <c r="C511" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E511" t="s">
         <v>8</v>
@@ -11761,13 +11776,13 @@
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B512" t="s">
         <v>662</v>
       </c>
       <c r="C512" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E512" t="s">
         <v>8</v>
@@ -11775,13 +11790,13 @@
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B513" t="s">
         <v>662</v>
       </c>
       <c r="C513" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E513" t="s">
         <v>8</v>
@@ -11789,13 +11804,13 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B514" t="s">
         <v>662</v>
       </c>
       <c r="C514" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E514" t="s">
         <v>8</v>
@@ -11803,13 +11818,13 @@
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B515" t="s">
         <v>662</v>
       </c>
       <c r="C515" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E515" t="s">
         <v>8</v>
@@ -11817,13 +11832,13 @@
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B516" t="s">
         <v>662</v>
       </c>
       <c r="C516" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E516" t="s">
         <v>8</v>
@@ -11831,13 +11846,13 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B517" t="s">
         <v>662</v>
       </c>
       <c r="C517" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E517" t="s">
         <v>8</v>
@@ -11845,13 +11860,13 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B518" t="s">
         <v>662</v>
       </c>
       <c r="C518" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E518" t="s">
         <v>8</v>
@@ -11859,13 +11874,13 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B519" t="s">
         <v>662</v>
       </c>
       <c r="C519" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E519" t="s">
         <v>8</v>
@@ -11873,13 +11888,13 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B520" t="s">
         <v>662</v>
       </c>
       <c r="C520" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E520" t="s">
         <v>8</v>
@@ -11887,13 +11902,13 @@
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B521" t="s">
         <v>662</v>
       </c>
       <c r="C521" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E521" t="s">
         <v>8</v>
@@ -11901,13 +11916,13 @@
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B522" t="s">
         <v>662</v>
       </c>
       <c r="C522" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E522" t="s">
         <v>8</v>
@@ -11915,13 +11930,13 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B523" t="s">
         <v>662</v>
       </c>
       <c r="C523" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E523" t="s">
         <v>8</v>
@@ -11929,13 +11944,13 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B524" t="s">
         <v>662</v>
       </c>
       <c r="C524" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E524" t="s">
         <v>8</v>
@@ -11943,13 +11958,13 @@
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B525" t="s">
         <v>662</v>
       </c>
       <c r="C525" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E525" t="s">
         <v>8</v>
@@ -11957,13 +11972,13 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B526" t="s">
         <v>662</v>
       </c>
       <c r="C526" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E526" t="s">
         <v>8</v>
@@ -11971,13 +11986,13 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B527" t="s">
         <v>662</v>
       </c>
       <c r="C527" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E527" t="s">
         <v>8</v>
@@ -11985,13 +12000,13 @@
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B528" t="s">
         <v>662</v>
       </c>
       <c r="C528" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E528" t="s">
         <v>8</v>
@@ -11999,13 +12014,13 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B529" t="s">
         <v>662</v>
       </c>
       <c r="C529" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E529" t="s">
         <v>8</v>
@@ -12013,13 +12028,13 @@
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B530" t="s">
         <v>662</v>
       </c>
       <c r="C530" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E530" t="s">
         <v>8</v>
@@ -12027,13 +12042,13 @@
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B531" t="s">
         <v>662</v>
       </c>
       <c r="C531" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E531" t="s">
         <v>8</v>
@@ -12041,13 +12056,13 @@
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B532" t="s">
         <v>662</v>
       </c>
       <c r="C532" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E532" t="s">
         <v>8</v>
@@ -12055,13 +12070,13 @@
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B533" t="s">
         <v>662</v>
       </c>
       <c r="C533" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E533" t="s">
         <v>8</v>
@@ -12069,13 +12084,13 @@
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B534" t="s">
         <v>662</v>
       </c>
       <c r="C534" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E534" t="s">
         <v>8</v>
@@ -12083,13 +12098,13 @@
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B535" t="s">
         <v>662</v>
       </c>
       <c r="C535" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E535" t="s">
         <v>8</v>
@@ -12097,13 +12112,13 @@
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B536" t="s">
         <v>662</v>
       </c>
       <c r="C536" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E536" t="s">
         <v>8</v>
@@ -12111,13 +12126,13 @@
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B537" t="s">
         <v>662</v>
       </c>
       <c r="C537" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E537" t="s">
         <v>8</v>
@@ -12125,13 +12140,13 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B538" t="s">
         <v>662</v>
       </c>
       <c r="C538" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E538" t="s">
         <v>8</v>
@@ -12139,13 +12154,13 @@
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B539" t="s">
         <v>662</v>
       </c>
       <c r="C539" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E539" t="s">
         <v>8</v>
@@ -12153,13 +12168,13 @@
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B540" t="s">
         <v>662</v>
       </c>
       <c r="C540" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E540" t="s">
         <v>8</v>
@@ -12167,13 +12182,13 @@
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B541" t="s">
         <v>662</v>
       </c>
       <c r="C541" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E541" t="s">
         <v>8</v>
@@ -12181,13 +12196,13 @@
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B542" t="s">
         <v>662</v>
       </c>
       <c r="C542" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E542" t="s">
         <v>8</v>
@@ -12195,13 +12210,13 @@
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B543" t="s">
         <v>662</v>
       </c>
       <c r="C543" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E543" t="s">
         <v>8</v>
@@ -12209,13 +12224,13 @@
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B544" t="s">
         <v>662</v>
       </c>
       <c r="C544" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E544" t="s">
         <v>8</v>
@@ -12223,13 +12238,13 @@
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B545" t="s">
         <v>662</v>
       </c>
       <c r="C545" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E545" t="s">
         <v>8</v>
@@ -12237,13 +12252,13 @@
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B546" t="s">
         <v>662</v>
       </c>
       <c r="C546" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E546" t="s">
         <v>8</v>
@@ -12251,13 +12266,13 @@
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B547" t="s">
         <v>662</v>
       </c>
       <c r="C547" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E547" t="s">
         <v>8</v>
@@ -12265,13 +12280,13 @@
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B548" t="s">
         <v>662</v>
       </c>
       <c r="C548" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E548" t="s">
         <v>8</v>
@@ -12279,13 +12294,13 @@
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B549" t="s">
         <v>662</v>
       </c>
       <c r="C549" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E549" t="s">
         <v>8</v>
@@ -12293,13 +12308,13 @@
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B550" t="s">
         <v>662</v>
       </c>
       <c r="C550" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E550" t="s">
         <v>8</v>
@@ -12307,13 +12322,13 @@
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B551" t="s">
         <v>662</v>
       </c>
       <c r="C551" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E551" t="s">
         <v>8</v>
@@ -12321,13 +12336,13 @@
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B552" t="s">
         <v>662</v>
       </c>
       <c r="C552" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E552" t="s">
         <v>8</v>
@@ -12335,13 +12350,13 @@
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B553" t="s">
         <v>662</v>
       </c>
       <c r="C553" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E553" t="s">
         <v>8</v>
@@ -12349,13 +12364,13 @@
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B554" t="s">
         <v>662</v>
       </c>
       <c r="C554" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E554" t="s">
         <v>8</v>
@@ -12363,13 +12378,13 @@
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B555" t="s">
         <v>662</v>
       </c>
       <c r="C555" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E555" t="s">
         <v>8</v>
@@ -12377,13 +12392,13 @@
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B556" t="s">
         <v>662</v>
       </c>
       <c r="C556" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E556" t="s">
         <v>8</v>
@@ -12391,13 +12406,13 @@
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B557" t="s">
         <v>662</v>
       </c>
       <c r="C557" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E557" t="s">
         <v>8</v>
@@ -12405,13 +12420,13 @@
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B558" t="s">
         <v>662</v>
       </c>
       <c r="C558" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E558" t="s">
         <v>8</v>
@@ -12419,13 +12434,13 @@
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B559" t="s">
         <v>662</v>
       </c>
       <c r="C559" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E559" t="s">
         <v>8</v>
@@ -12433,13 +12448,13 @@
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B560" t="s">
         <v>662</v>
       </c>
       <c r="C560" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E560" t="s">
         <v>8</v>
@@ -12447,13 +12462,13 @@
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B561" t="s">
         <v>662</v>
       </c>
       <c r="C561" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E561" t="s">
         <v>8</v>
@@ -12461,13 +12476,13 @@
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B562" t="s">
         <v>662</v>
       </c>
       <c r="C562" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E562" t="s">
         <v>8</v>
@@ -12475,13 +12490,13 @@
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B563" t="s">
         <v>662</v>
       </c>
       <c r="C563" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E563" t="s">
         <v>8</v>
@@ -12489,13 +12504,13 @@
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B564" t="s">
         <v>662</v>
       </c>
       <c r="C564" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E564" t="s">
         <v>8</v>
@@ -12503,13 +12518,13 @@
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B565" t="s">
         <v>662</v>
       </c>
       <c r="C565" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E565" t="s">
         <v>8</v>
@@ -12517,13 +12532,13 @@
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B566" t="s">
         <v>662</v>
       </c>
       <c r="C566" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E566" t="s">
         <v>8</v>
@@ -12531,13 +12546,13 @@
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B567" t="s">
         <v>662</v>
       </c>
       <c r="C567" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E567" t="s">
         <v>8</v>
@@ -12545,13 +12560,13 @@
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B568" t="s">
         <v>662</v>
       </c>
       <c r="C568" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E568" t="s">
         <v>8</v>
@@ -12559,13 +12574,13 @@
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B569" t="s">
         <v>662</v>
       </c>
       <c r="C569" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E569" t="s">
         <v>8</v>
@@ -12573,13 +12588,13 @@
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B570" t="s">
         <v>662</v>
       </c>
       <c r="C570" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E570" t="s">
         <v>8</v>
@@ -12587,13 +12602,13 @@
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B571" t="s">
         <v>662</v>
       </c>
       <c r="C571" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E571" t="s">
         <v>8</v>
@@ -12601,13 +12616,13 @@
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B572" t="s">
         <v>662</v>
       </c>
       <c r="C572" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E572" t="s">
         <v>8</v>
@@ -12615,13 +12630,13 @@
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B573" t="s">
         <v>662</v>
       </c>
       <c r="C573" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E573" t="s">
         <v>8</v>
@@ -12629,13 +12644,13 @@
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B574" t="s">
         <v>662</v>
       </c>
       <c r="C574" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E574" t="s">
         <v>8</v>
@@ -12643,13 +12658,13 @@
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B575" t="s">
         <v>662</v>
       </c>
       <c r="C575" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E575" t="s">
         <v>8</v>
@@ -12657,251 +12672,254 @@
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B576" t="s">
+        <v>662</v>
+      </c>
+      <c r="C576" t="s">
+        <v>632</v>
+      </c>
+      <c r="E576" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
         <v>1233</v>
       </c>
-      <c r="B576" t="s">
-        <v>662</v>
-      </c>
-      <c r="C576" t="s">
+      <c r="B577" t="s">
+        <v>662</v>
+      </c>
+      <c r="C577" t="s">
         <v>633</v>
       </c>
-      <c r="E576" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A577" t="s">
+      <c r="E577" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
         <v>1234</v>
       </c>
-      <c r="B577" t="s">
-        <v>662</v>
-      </c>
-      <c r="C577" t="s">
+      <c r="B578" t="s">
+        <v>662</v>
+      </c>
+      <c r="C578" t="s">
         <v>634</v>
       </c>
-      <c r="E577" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A578" t="s">
+      <c r="E578" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
         <v>1235</v>
       </c>
-      <c r="B578" t="s">
-        <v>662</v>
-      </c>
-      <c r="C578" t="s">
+      <c r="B579" t="s">
+        <v>662</v>
+      </c>
+      <c r="C579" t="s">
         <v>635</v>
       </c>
-      <c r="E578" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A579" t="s">
+      <c r="E579" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
         <v>1236</v>
       </c>
-      <c r="B579" t="s">
-        <v>662</v>
-      </c>
-      <c r="C579" t="s">
+      <c r="B580" t="s">
+        <v>662</v>
+      </c>
+      <c r="C580" t="s">
         <v>636</v>
       </c>
-      <c r="E579" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A580" t="s">
+      <c r="E580" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
         <v>1237</v>
       </c>
-      <c r="B580" t="s">
-        <v>662</v>
-      </c>
-      <c r="C580" t="s">
+      <c r="B581" t="s">
+        <v>662</v>
+      </c>
+      <c r="C581" t="s">
         <v>637</v>
       </c>
-      <c r="E580" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A581" t="s">
+      <c r="E581" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
         <v>1238</v>
       </c>
-      <c r="B581" t="s">
-        <v>662</v>
-      </c>
-      <c r="C581" t="s">
+      <c r="B582" t="s">
+        <v>662</v>
+      </c>
+      <c r="C582" t="s">
         <v>638</v>
       </c>
-      <c r="E581" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A582" t="s">
+      <c r="E582" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
         <v>1239</v>
       </c>
-      <c r="B582" t="s">
-        <v>662</v>
-      </c>
-      <c r="C582" t="s">
+      <c r="B583" t="s">
+        <v>662</v>
+      </c>
+      <c r="C583" t="s">
         <v>639</v>
       </c>
-      <c r="E582" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A583" t="s">
+      <c r="E583" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
         <v>1240</v>
       </c>
-      <c r="B583" t="s">
-        <v>662</v>
-      </c>
-      <c r="C583" t="s">
+      <c r="B584" t="s">
+        <v>662</v>
+      </c>
+      <c r="C584" t="s">
         <v>640</v>
       </c>
-      <c r="E583" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A584" t="s">
+      <c r="E584" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
         <v>1241</v>
       </c>
-      <c r="B584" t="s">
-        <v>662</v>
-      </c>
-      <c r="C584" t="s">
+      <c r="B585" t="s">
+        <v>662</v>
+      </c>
+      <c r="C585" t="s">
         <v>641</v>
       </c>
-      <c r="E584" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A585" t="s">
+      <c r="E585" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
         <v>1242</v>
       </c>
-      <c r="B585" t="s">
-        <v>662</v>
-      </c>
-      <c r="C585" t="s">
+      <c r="B586" t="s">
+        <v>662</v>
+      </c>
+      <c r="C586" t="s">
         <v>642</v>
       </c>
-      <c r="E585" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A586" t="s">
+      <c r="E586" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
         <v>1243</v>
       </c>
-      <c r="B586" t="s">
-        <v>662</v>
-      </c>
-      <c r="C586" t="s">
+      <c r="B587" t="s">
+        <v>662</v>
+      </c>
+      <c r="C587" t="s">
         <v>643</v>
       </c>
-      <c r="E586" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A587" t="s">
+      <c r="E587" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="588" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
         <v>1244</v>
       </c>
-      <c r="B587" t="s">
-        <v>662</v>
-      </c>
-      <c r="C587" t="s">
+      <c r="B588" t="s">
+        <v>662</v>
+      </c>
+      <c r="C588" t="s">
         <v>644</v>
       </c>
-      <c r="E587" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A588" t="s">
+      <c r="E588" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
         <v>1245</v>
       </c>
-      <c r="B588" t="s">
-        <v>662</v>
-      </c>
-      <c r="C588" t="s">
+      <c r="B589" t="s">
+        <v>662</v>
+      </c>
+      <c r="C589" t="s">
         <v>645</v>
       </c>
-      <c r="E588" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A589" t="s">
+      <c r="E589" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
         <v>1246</v>
       </c>
-      <c r="B589" t="s">
-        <v>662</v>
-      </c>
-      <c r="C589" t="s">
+      <c r="B590" t="s">
+        <v>662</v>
+      </c>
+      <c r="C590" t="s">
         <v>646</v>
       </c>
-      <c r="E589" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A590" t="s">
+      <c r="E590" t="s">
+        <v>8</v>
+      </c>
+      <c r="I590" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
         <v>1247</v>
       </c>
-      <c r="B590" t="s">
-        <v>662</v>
-      </c>
-      <c r="C590" t="s">
+      <c r="B591" t="s">
+        <v>662</v>
+      </c>
+      <c r="C591" t="s">
         <v>647</v>
       </c>
-      <c r="E590" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A591" t="s">
+      <c r="E591" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
         <v>1248</v>
       </c>
-      <c r="B591" t="s">
-        <v>662</v>
-      </c>
-      <c r="C591" t="s">
+      <c r="B592" t="s">
+        <v>662</v>
+      </c>
+      <c r="C592" t="s">
         <v>648</v>
       </c>
-      <c r="E591" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A592" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B592" t="s">
-        <v>662</v>
-      </c>
-      <c r="C592" t="s">
-        <v>649</v>
-      </c>
       <c r="E592" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B593" t="s">
         <v>662</v>
       </c>
       <c r="C593" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E593" t="s">
         <v>8</v>
@@ -12909,13 +12927,13 @@
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B594" t="s">
         <v>662</v>
       </c>
       <c r="C594" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E594" t="s">
         <v>8</v>
@@ -12923,13 +12941,13 @@
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B595" t="s">
         <v>662</v>
       </c>
       <c r="C595" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E595" t="s">
         <v>8</v>
@@ -12937,13 +12955,13 @@
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B596" t="s">
         <v>662</v>
       </c>
       <c r="C596" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E596" t="s">
         <v>8</v>
@@ -12951,13 +12969,13 @@
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B597" t="s">
         <v>662</v>
       </c>
       <c r="C597" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E597" t="s">
         <v>8</v>
@@ -12965,13 +12983,13 @@
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B598" t="s">
         <v>662</v>
       </c>
       <c r="C598" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E598" t="s">
         <v>8</v>
@@ -12979,13 +12997,13 @@
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B599" t="s">
         <v>662</v>
       </c>
       <c r="C599" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E599" t="s">
         <v>8</v>
@@ -12993,13 +13011,13 @@
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B600" t="s">
         <v>662</v>
       </c>
       <c r="C600" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E600" t="s">
         <v>8</v>
@@ -13007,13 +13025,13 @@
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B601" t="s">
         <v>662</v>
       </c>
       <c r="C601" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E601" t="s">
         <v>8</v>
@@ -13021,15 +13039,29 @@
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B602" t="s">
+        <v>662</v>
+      </c>
+      <c r="C602" t="s">
+        <v>658</v>
+      </c>
+      <c r="E602" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
         <v>1259</v>
       </c>
-      <c r="B602" t="s">
-        <v>662</v>
-      </c>
-      <c r="C602" t="s">
+      <c r="B603" t="s">
+        <v>662</v>
+      </c>
+      <c r="C603" t="s">
         <v>659</v>
       </c>
-      <c r="E602" t="s">
+      <c r="E603" t="s">
         <v>8</v>
       </c>
     </row>

--- a/public/data/db_source/variable.xlsx
+++ b/public/data/db_source/variable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1039B3EC-CDDE-614B-A665-2C449148C8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E73312-261D-B341-B7EB-71BD0C0FA7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3680" windowWidth="28800" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4261,10 +4261,10 @@
   <dimension ref="A1:M603"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomRight" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4957,7 +4957,7 @@
         <v>79</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I35" t="s">
         <v>80</v>
@@ -5253,7 +5253,7 @@
         <v>96</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">

--- a/public/data/db_source/variable.xlsx
+++ b/public/data/db_source/variable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E73312-261D-B341-B7EB-71BD0C0FA7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA23BEE-C9E6-314E-B935-5859479D7D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3680" windowWidth="28800" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="1291">
   <si>
     <t>id</t>
   </si>
@@ -3881,6 +3881,18 @@
   </si>
   <si>
     <t>description of variable 36</t>
+  </si>
+  <si>
+    <t>2021/02</t>
+  </si>
+  <si>
+    <t>2020t2</t>
+  </si>
+  <si>
+    <t>2020t3</t>
+  </si>
+  <si>
+    <t>2018t4</t>
   </si>
 </sst>
 </file>
@@ -4260,11 +4272,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M603"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I47" sqref="I47"/>
+      <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5089,7 +5101,7 @@
         <v>1271</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>85</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -5115,7 +5127,7 @@
         <v>94</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>99</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -5167,7 +5179,7 @@
         <v>94</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>99</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -5207,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>94</v>
+        <v>1290</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>99</v>

--- a/public/data/db_source/variable.xlsx
+++ b/public/data/db_source/variable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA23BEE-C9E6-314E-B935-5859479D7D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64BA5EC-D37D-F94E-9465-C77DA590C4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3680" windowWidth="28800" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4276,7 +4276,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
+      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5193,7 +5193,7 @@
         <v>97</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I45" t="s">
         <v>40</v>

--- a/public/data/db_source/variable.xlsx
+++ b/public/data/db_source/variable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64BA5EC-D37D-F94E-9465-C77DA590C4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3B8826-2625-6247-A1EA-CCC0BACA51E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3680" windowWidth="28800" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5236,7 +5236,7 @@
         <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I47" t="s">
         <v>40</v>

--- a/public/data/db_source/variable.xlsx
+++ b/public/data/db_source/variable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3B8826-2625-6247-A1EA-CCC0BACA51E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06672197-BF20-A945-A392-74167CECDA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3680" windowWidth="28800" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4276,7 +4276,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomRight" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5413,7 +5413,7 @@
         <v>112</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">

--- a/public/data/db_source/variable.xlsx
+++ b/public/data/db_source/variable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06672197-BF20-A945-A392-74167CECDA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8967EF62-C86F-6F44-B4E9-BDC628D9CCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3680" windowWidth="28800" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="1291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1292">
   <si>
     <t>id</t>
   </si>
@@ -3893,6 +3893,9 @@
   </si>
   <si>
     <t>2018t4</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
 </sst>
 </file>
@@ -3962,9 +3965,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5F79C97-E8B2-3E4B-873D-A9EBE7FF4B08}" name="Tableau1" displayName="Tableau1" ref="A1:M603" totalsRowShown="0">
-  <autoFilter ref="A1:M603" xr:uid="{B5F79C97-E8B2-3E4B-873D-A9EBE7FF4B08}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5F79C97-E8B2-3E4B-873D-A9EBE7FF4B08}" name="Tableau1" displayName="Tableau1" ref="A1:N603" totalsRowShown="0">
+  <autoFilter ref="A1:N603" xr:uid="{B5F79C97-E8B2-3E4B-873D-A9EBE7FF4B08}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{93604F40-CD55-3D4B-AC71-27C6EBB96585}" name="id"/>
     <tableColumn id="2" xr3:uid="{BF843A60-41B0-EA48-977A-51FEEA73F6C7}" name="dataset_id"/>
     <tableColumn id="3" xr3:uid="{BCB7C440-426C-EF4D-8E48-57BB86725760}" name="name"/>
@@ -3978,6 +3981,7 @@
     <tableColumn id="10" xr3:uid="{7AEC9287-EE71-324F-90D8-FD7C1B573F48}" name="end_date" dataDxfId="0"/>
     <tableColumn id="12" xr3:uid="{113E5C5D-89D6-9C42-8737-7B27E528F557}" name="modality_ids"/>
     <tableColumn id="13" xr3:uid="{0D9C543A-3D7D-A74A-A543-90491A90EB94}" name="tag_ids"/>
+    <tableColumn id="14" xr3:uid="{80B52D4C-5640-6240-939A-6DC6F1F2147C}" name="key"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4270,13 +4274,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M603"/>
+  <dimension ref="A1:N603"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F56" sqref="F56"/>
+      <selection pane="bottomRight" activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4296,7 +4300,7 @@
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4336,8 +4340,11 @@
       <c r="M1" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>663</v>
       </c>
@@ -4353,8 +4360,11 @@
       <c r="I2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>664</v>
       </c>
@@ -4371,7 +4381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>665</v>
       </c>
@@ -4400,7 +4410,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>666</v>
       </c>
@@ -4417,7 +4427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>667</v>
       </c>
@@ -4440,7 +4450,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>668</v>
       </c>
@@ -4460,7 +4470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>669</v>
       </c>
@@ -4489,7 +4499,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>670</v>
       </c>
@@ -4512,7 +4522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>671</v>
       </c>
@@ -4535,7 +4545,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>672</v>
       </c>
@@ -4552,7 +4562,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>673</v>
       </c>
@@ -4572,7 +4582,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>674</v>
       </c>
@@ -4589,7 +4599,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>675</v>
       </c>
@@ -4612,7 +4622,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>676</v>
       </c>
@@ -4629,7 +4639,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>677</v>
       </c>
@@ -4646,7 +4656,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>678</v>
       </c>
@@ -4666,7 +4676,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>679</v>
       </c>
@@ -4683,7 +4693,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>680</v>
       </c>
@@ -4700,7 +4710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>681</v>
       </c>
@@ -4717,7 +4727,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>682</v>
       </c>
@@ -4734,7 +4744,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>683</v>
       </c>
@@ -4751,7 +4761,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>684</v>
       </c>
@@ -4768,7 +4778,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>685</v>
       </c>
@@ -4785,7 +4795,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>686</v>
       </c>
@@ -4802,7 +4812,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>687</v>
       </c>
@@ -4818,8 +4828,11 @@
       <c r="I26" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>688</v>
       </c>
@@ -4836,7 +4849,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>689</v>
       </c>
@@ -4853,7 +4866,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>690</v>
       </c>
@@ -4870,7 +4883,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>691</v>
       </c>
@@ -4887,7 +4900,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>692</v>
       </c>
@@ -4907,7 +4920,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>693</v>
       </c>
@@ -4924,7 +4937,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>694</v>
       </c>
@@ -4941,7 +4954,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>695</v>
       </c>
@@ -4958,7 +4971,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>696</v>
       </c>
@@ -4975,7 +4988,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>697</v>
       </c>
@@ -4992,7 +5005,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1284</v>
       </c>
@@ -5009,7 +5022,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1260</v>
       </c>
@@ -5035,7 +5048,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1269</v>
       </c>
@@ -5058,7 +5071,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1270</v>
       </c>
@@ -5084,7 +5097,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1268</v>
       </c>
@@ -5104,7 +5117,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>698</v>
       </c>
@@ -5130,7 +5143,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>699</v>
       </c>
@@ -5159,7 +5172,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>700</v>
       </c>
@@ -5182,7 +5195,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>701</v>
       </c>
@@ -5201,8 +5214,11 @@
       <c r="J45" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>702</v>
       </c>
@@ -5225,7 +5241,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>703</v>
       </c>
@@ -5245,7 +5261,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>704</v>
       </c>

--- a/public/data/db_source/variable.xlsx
+++ b/public/data/db_source/variable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8967EF62-C86F-6F44-B4E9-BDC628D9CCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ECED50-544B-A842-80E8-C0F37A585A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3680" windowWidth="28800" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="1289">
   <si>
     <t>id</t>
   </si>
@@ -3872,15 +3872,6 @@
   </si>
   <si>
     <t>test description 3</t>
-  </si>
-  <si>
-    <t>ser_pub_loc___variable_36</t>
-  </si>
-  <si>
-    <t>variable 36</t>
-  </si>
-  <si>
-    <t>description of variable 36</t>
   </si>
   <si>
     <t>2021/02</t>
@@ -3965,8 +3956,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5F79C97-E8B2-3E4B-873D-A9EBE7FF4B08}" name="Tableau1" displayName="Tableau1" ref="A1:N603" totalsRowShown="0">
-  <autoFilter ref="A1:N603" xr:uid="{B5F79C97-E8B2-3E4B-873D-A9EBE7FF4B08}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5F79C97-E8B2-3E4B-873D-A9EBE7FF4B08}" name="Tableau1" displayName="Tableau1" ref="A1:N602" totalsRowShown="0">
+  <autoFilter ref="A1:N602" xr:uid="{B5F79C97-E8B2-3E4B-873D-A9EBE7FF4B08}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{93604F40-CD55-3D4B-AC71-27C6EBB96585}" name="id"/>
     <tableColumn id="2" xr3:uid="{BF843A60-41B0-EA48-977A-51FEEA73F6C7}" name="dataset_id"/>
@@ -4274,13 +4265,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N603"/>
+  <dimension ref="A1:N602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N45" sqref="N45"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4341,7 +4332,7 @@
         <v>1281</v>
       </c>
       <c r="N1" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -5007,398 +4998,395 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1284</v>
+        <v>1260</v>
       </c>
       <c r="B37" t="s">
         <v>660</v>
       </c>
       <c r="C37" t="s">
-        <v>1285</v>
+        <v>1261</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1262</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I37" t="s">
-        <v>1286</v>
+        <v>1272</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1278</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1260</v>
+        <v>1269</v>
       </c>
       <c r="B38" t="s">
         <v>660</v>
       </c>
       <c r="C38" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="D38" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
       </c>
       <c r="I38" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="L38" t="s">
-        <v>1278</v>
-      </c>
-      <c r="M38" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B39" t="s">
         <v>660</v>
       </c>
       <c r="C39" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D39" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I39" t="s">
-        <v>1273</v>
+        <v>1274</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="L39" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B40" t="s">
         <v>660</v>
       </c>
       <c r="C40" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I40" t="s">
-        <v>1274</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L40" t="s">
-        <v>1280</v>
+        <v>1271</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>1284</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1268</v>
+        <v>698</v>
       </c>
       <c r="B41" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C41" t="s">
-        <v>1267</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>1271</v>
+        <v>0</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B42" t="s">
         <v>661</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F42">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>8</v>
       </c>
       <c r="I42" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>1288</v>
+      <c r="L42" t="s">
+        <v>1277</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B43" t="s">
         <v>661</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="G43">
         <v>8</v>
       </c>
       <c r="I43" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L43" t="s">
-        <v>1277</v>
+      <c r="K43" s="1" t="s">
+        <v>1286</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B44" t="s">
         <v>661</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
       </c>
       <c r="I44" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>1289</v>
+      <c r="N44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B45" t="s">
         <v>661</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
+        <v>1287</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B46" t="s">
         <v>661</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
       </c>
       <c r="I46" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>1290</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B47" t="s">
         <v>661</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
       </c>
       <c r="I47" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B48" t="s">
         <v>661</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I48" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B49" t="s">
         <v>661</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I49" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="K49" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B50" t="s">
         <v>661</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I50" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B51" t="s">
         <v>661</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I51" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="K51" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B52" t="s">
         <v>661</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I52" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B53" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
-      </c>
-      <c r="I53" t="s">
-        <v>40</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B54" t="s">
         <v>662</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
@@ -5406,41 +5394,41 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B55" t="s">
         <v>662</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B56" t="s">
         <v>662</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B57" t="s">
         <v>662</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
@@ -5448,13 +5436,13 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B58" t="s">
         <v>662</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
@@ -5462,13 +5450,13 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B59" t="s">
         <v>662</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
@@ -5476,13 +5464,13 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B60" t="s">
         <v>662</v>
       </c>
       <c r="C60" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
@@ -5490,13 +5478,13 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B61" t="s">
         <v>662</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
@@ -5504,13 +5492,13 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B62" t="s">
         <v>662</v>
       </c>
       <c r="C62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
@@ -5518,13 +5506,13 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B63" t="s">
         <v>662</v>
       </c>
       <c r="C63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
@@ -5532,13 +5520,13 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B64" t="s">
         <v>662</v>
       </c>
       <c r="C64" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E64" t="s">
         <v>8</v>
@@ -5546,13 +5534,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B65" t="s">
         <v>662</v>
       </c>
       <c r="C65" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E65" t="s">
         <v>8</v>
@@ -5560,13 +5548,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B66" t="s">
         <v>662</v>
       </c>
       <c r="C66" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
@@ -5574,13 +5562,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B67" t="s">
         <v>662</v>
       </c>
       <c r="C67" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
@@ -5588,13 +5576,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B68" t="s">
         <v>662</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
@@ -5602,13 +5590,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B69" t="s">
         <v>662</v>
       </c>
       <c r="C69" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E69" t="s">
         <v>8</v>
@@ -5616,13 +5604,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B70" t="s">
         <v>662</v>
       </c>
       <c r="C70" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
@@ -5630,13 +5618,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B71" t="s">
         <v>662</v>
       </c>
       <c r="C71" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
@@ -5644,13 +5632,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B72" t="s">
         <v>662</v>
       </c>
       <c r="C72" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E72" t="s">
         <v>8</v>
@@ -5658,13 +5646,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B73" t="s">
         <v>662</v>
       </c>
       <c r="C73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
@@ -5672,13 +5660,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B74" t="s">
         <v>662</v>
       </c>
       <c r="C74" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
@@ -5686,13 +5674,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B75" t="s">
         <v>662</v>
       </c>
       <c r="C75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
@@ -5700,13 +5688,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B76" t="s">
         <v>662</v>
       </c>
       <c r="C76" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E76" t="s">
         <v>8</v>
@@ -5714,13 +5702,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B77" t="s">
         <v>662</v>
       </c>
       <c r="C77" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E77" t="s">
         <v>8</v>
@@ -5728,13 +5716,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B78" t="s">
         <v>662</v>
       </c>
       <c r="C78" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E78" t="s">
         <v>8</v>
@@ -5742,13 +5730,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B79" t="s">
         <v>662</v>
       </c>
       <c r="C79" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E79" t="s">
         <v>8</v>
@@ -5756,13 +5744,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B80" t="s">
         <v>662</v>
       </c>
       <c r="C80" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
@@ -5770,13 +5758,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B81" t="s">
         <v>662</v>
       </c>
       <c r="C81" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E81" t="s">
         <v>8</v>
@@ -5784,13 +5772,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B82" t="s">
         <v>662</v>
       </c>
       <c r="C82" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E82" t="s">
         <v>8</v>
@@ -5798,13 +5786,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B83" t="s">
         <v>662</v>
       </c>
       <c r="C83" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E83" t="s">
         <v>8</v>
@@ -5812,13 +5800,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B84" t="s">
         <v>662</v>
       </c>
       <c r="C84" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E84" t="s">
         <v>8</v>
@@ -5826,13 +5814,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B85" t="s">
         <v>662</v>
       </c>
       <c r="C85" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
@@ -5840,13 +5828,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B86" t="s">
         <v>662</v>
       </c>
       <c r="C86" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
@@ -5854,13 +5842,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B87" t="s">
         <v>662</v>
       </c>
       <c r="C87" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
@@ -5868,13 +5856,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B88" t="s">
         <v>662</v>
       </c>
       <c r="C88" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
@@ -5882,13 +5870,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B89" t="s">
         <v>662</v>
       </c>
       <c r="C89" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
@@ -5896,13 +5884,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B90" t="s">
         <v>662</v>
       </c>
       <c r="C90" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E90" t="s">
         <v>8</v>
@@ -5910,13 +5898,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B91" t="s">
         <v>662</v>
       </c>
       <c r="C91" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
@@ -5924,13 +5912,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B92" t="s">
         <v>662</v>
       </c>
       <c r="C92" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E92" t="s">
         <v>8</v>
@@ -5938,13 +5926,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B93" t="s">
         <v>662</v>
       </c>
       <c r="C93" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E93" t="s">
         <v>8</v>
@@ -5952,13 +5940,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B94" t="s">
         <v>662</v>
       </c>
       <c r="C94" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E94" t="s">
         <v>8</v>
@@ -5966,13 +5954,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B95" t="s">
         <v>662</v>
       </c>
       <c r="C95" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E95" t="s">
         <v>8</v>
@@ -5980,13 +5968,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B96" t="s">
         <v>662</v>
       </c>
       <c r="C96" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E96" t="s">
         <v>8</v>
@@ -5994,13 +5982,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B97" t="s">
         <v>662</v>
       </c>
       <c r="C97" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E97" t="s">
         <v>8</v>
@@ -6008,13 +5996,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B98" t="s">
         <v>662</v>
       </c>
       <c r="C98" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E98" t="s">
         <v>8</v>
@@ -6022,13 +6010,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B99" t="s">
         <v>662</v>
       </c>
       <c r="C99" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
@@ -6036,13 +6024,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B100" t="s">
         <v>662</v>
       </c>
       <c r="C100" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E100" t="s">
         <v>8</v>
@@ -6050,13 +6038,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B101" t="s">
         <v>662</v>
       </c>
       <c r="C101" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E101" t="s">
         <v>8</v>
@@ -6064,13 +6052,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B102" t="s">
         <v>662</v>
       </c>
       <c r="C102" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E102" t="s">
         <v>8</v>
@@ -6078,13 +6066,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B103" t="s">
         <v>662</v>
       </c>
       <c r="C103" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E103" t="s">
         <v>8</v>
@@ -6092,13 +6080,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B104" t="s">
         <v>662</v>
       </c>
       <c r="C104" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E104" t="s">
         <v>8</v>
@@ -6106,13 +6094,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B105" t="s">
         <v>662</v>
       </c>
       <c r="C105" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
@@ -6120,13 +6108,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B106" t="s">
         <v>662</v>
       </c>
       <c r="C106" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E106" t="s">
         <v>8</v>
@@ -6134,13 +6122,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B107" t="s">
         <v>662</v>
       </c>
       <c r="C107" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E107" t="s">
         <v>8</v>
@@ -6148,13 +6136,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B108" t="s">
         <v>662</v>
       </c>
       <c r="C108" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E108" t="s">
         <v>8</v>
@@ -6162,13 +6150,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B109" t="s">
         <v>662</v>
       </c>
       <c r="C109" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E109" t="s">
         <v>8</v>
@@ -6176,13 +6164,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B110" t="s">
         <v>662</v>
       </c>
       <c r="C110" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E110" t="s">
         <v>8</v>
@@ -6190,13 +6178,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B111" t="s">
         <v>662</v>
       </c>
       <c r="C111" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E111" t="s">
         <v>8</v>
@@ -6204,13 +6192,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B112" t="s">
         <v>662</v>
       </c>
       <c r="C112" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E112" t="s">
         <v>8</v>
@@ -6218,13 +6206,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B113" t="s">
         <v>662</v>
       </c>
       <c r="C113" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E113" t="s">
         <v>8</v>
@@ -6232,13 +6220,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B114" t="s">
         <v>662</v>
       </c>
       <c r="C114" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E114" t="s">
         <v>8</v>
@@ -6246,13 +6234,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B115" t="s">
         <v>662</v>
       </c>
       <c r="C115" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E115" t="s">
         <v>8</v>
@@ -6260,13 +6248,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B116" t="s">
         <v>662</v>
       </c>
       <c r="C116" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E116" t="s">
         <v>8</v>
@@ -6274,13 +6262,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B117" t="s">
         <v>662</v>
       </c>
       <c r="C117" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E117" t="s">
         <v>8</v>
@@ -6288,13 +6276,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B118" t="s">
         <v>662</v>
       </c>
       <c r="C118" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E118" t="s">
         <v>8</v>
@@ -6302,13 +6290,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B119" t="s">
         <v>662</v>
       </c>
       <c r="C119" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E119" t="s">
         <v>8</v>
@@ -6316,13 +6304,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B120" t="s">
         <v>662</v>
       </c>
       <c r="C120" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E120" t="s">
         <v>8</v>
@@ -6330,13 +6318,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B121" t="s">
         <v>662</v>
       </c>
       <c r="C121" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E121" t="s">
         <v>8</v>
@@ -6344,13 +6332,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B122" t="s">
         <v>662</v>
       </c>
       <c r="C122" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E122" t="s">
         <v>8</v>
@@ -6358,13 +6346,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B123" t="s">
         <v>662</v>
       </c>
       <c r="C123" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E123" t="s">
         <v>8</v>
@@ -6372,13 +6360,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B124" t="s">
         <v>662</v>
       </c>
       <c r="C124" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E124" t="s">
         <v>8</v>
@@ -6386,13 +6374,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B125" t="s">
         <v>662</v>
       </c>
       <c r="C125" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E125" t="s">
         <v>8</v>
@@ -6400,13 +6388,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B126" t="s">
         <v>662</v>
       </c>
       <c r="C126" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E126" t="s">
         <v>8</v>
@@ -6414,13 +6402,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B127" t="s">
         <v>662</v>
       </c>
       <c r="C127" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E127" t="s">
         <v>8</v>
@@ -6428,13 +6416,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B128" t="s">
         <v>662</v>
       </c>
       <c r="C128" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E128" t="s">
         <v>8</v>
@@ -6442,13 +6430,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B129" t="s">
         <v>662</v>
       </c>
       <c r="C129" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E129" t="s">
         <v>8</v>
@@ -6456,13 +6444,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B130" t="s">
         <v>662</v>
       </c>
       <c r="C130" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E130" t="s">
         <v>8</v>
@@ -6470,13 +6458,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B131" t="s">
         <v>662</v>
       </c>
       <c r="C131" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E131" t="s">
         <v>8</v>
@@ -6484,13 +6472,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B132" t="s">
         <v>662</v>
       </c>
       <c r="C132" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E132" t="s">
         <v>8</v>
@@ -6498,13 +6486,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B133" t="s">
         <v>662</v>
       </c>
       <c r="C133" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E133" t="s">
         <v>8</v>
@@ -6512,13 +6500,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B134" t="s">
         <v>662</v>
       </c>
       <c r="C134" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E134" t="s">
         <v>8</v>
@@ -6526,13 +6514,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B135" t="s">
         <v>662</v>
       </c>
       <c r="C135" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E135" t="s">
         <v>8</v>
@@ -6540,13 +6528,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B136" t="s">
         <v>662</v>
       </c>
       <c r="C136" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E136" t="s">
         <v>8</v>
@@ -6554,13 +6542,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B137" t="s">
         <v>662</v>
       </c>
       <c r="C137" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E137" t="s">
         <v>8</v>
@@ -6568,13 +6556,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B138" t="s">
         <v>662</v>
       </c>
       <c r="C138" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E138" t="s">
         <v>8</v>
@@ -6582,13 +6570,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B139" t="s">
         <v>662</v>
       </c>
       <c r="C139" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E139" t="s">
         <v>8</v>
@@ -6596,13 +6584,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B140" t="s">
         <v>662</v>
       </c>
       <c r="C140" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E140" t="s">
         <v>8</v>
@@ -6610,13 +6598,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B141" t="s">
         <v>662</v>
       </c>
       <c r="C141" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E141" t="s">
         <v>8</v>
@@ -6624,13 +6612,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B142" t="s">
         <v>662</v>
       </c>
       <c r="C142" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E142" t="s">
         <v>8</v>
@@ -6638,13 +6626,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B143" t="s">
         <v>662</v>
       </c>
       <c r="C143" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E143" t="s">
         <v>8</v>
@@ -6652,13 +6640,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B144" t="s">
         <v>662</v>
       </c>
       <c r="C144" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E144" t="s">
         <v>8</v>
@@ -6666,13 +6654,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B145" t="s">
         <v>662</v>
       </c>
       <c r="C145" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E145" t="s">
         <v>8</v>
@@ -6680,13 +6668,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B146" t="s">
         <v>662</v>
       </c>
       <c r="C146" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
@@ -6694,13 +6682,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B147" t="s">
         <v>662</v>
       </c>
       <c r="C147" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E147" t="s">
         <v>8</v>
@@ -6708,13 +6696,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B148" t="s">
         <v>662</v>
       </c>
       <c r="C148" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E148" t="s">
         <v>8</v>
@@ -6722,13 +6710,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B149" t="s">
         <v>662</v>
       </c>
       <c r="C149" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E149" t="s">
         <v>8</v>
@@ -6736,13 +6724,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B150" t="s">
         <v>662</v>
       </c>
       <c r="C150" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E150" t="s">
         <v>8</v>
@@ -6750,13 +6738,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B151" t="s">
         <v>662</v>
       </c>
       <c r="C151" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E151" t="s">
         <v>8</v>
@@ -6764,13 +6752,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B152" t="s">
         <v>662</v>
       </c>
       <c r="C152" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E152" t="s">
         <v>8</v>
@@ -6778,13 +6766,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B153" t="s">
         <v>662</v>
       </c>
       <c r="C153" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E153" t="s">
         <v>8</v>
@@ -6792,13 +6780,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B154" t="s">
         <v>662</v>
       </c>
       <c r="C154" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E154" t="s">
         <v>8</v>
@@ -6806,13 +6794,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B155" t="s">
         <v>662</v>
       </c>
       <c r="C155" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E155" t="s">
         <v>8</v>
@@ -6820,13 +6808,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B156" t="s">
         <v>662</v>
       </c>
       <c r="C156" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E156" t="s">
         <v>8</v>
@@ -6834,13 +6822,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B157" t="s">
         <v>662</v>
       </c>
       <c r="C157" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E157" t="s">
         <v>8</v>
@@ -6848,13 +6836,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B158" t="s">
         <v>662</v>
       </c>
       <c r="C158" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E158" t="s">
         <v>8</v>
@@ -6862,13 +6850,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B159" t="s">
         <v>662</v>
       </c>
       <c r="C159" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E159" t="s">
         <v>8</v>
@@ -6876,13 +6864,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B160" t="s">
         <v>662</v>
       </c>
       <c r="C160" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E160" t="s">
         <v>8</v>
@@ -6890,13 +6878,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B161" t="s">
         <v>662</v>
       </c>
       <c r="C161" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E161" t="s">
         <v>8</v>
@@ -6904,13 +6892,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B162" t="s">
         <v>662</v>
       </c>
       <c r="C162" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E162" t="s">
         <v>8</v>
@@ -6918,13 +6906,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B163" t="s">
         <v>662</v>
       </c>
       <c r="C163" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E163" t="s">
         <v>8</v>
@@ -6932,13 +6920,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B164" t="s">
         <v>662</v>
       </c>
       <c r="C164" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E164" t="s">
         <v>8</v>
@@ -6946,13 +6934,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B165" t="s">
         <v>662</v>
       </c>
       <c r="C165" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E165" t="s">
         <v>8</v>
@@ -6960,13 +6948,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B166" t="s">
         <v>662</v>
       </c>
       <c r="C166" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E166" t="s">
         <v>8</v>
@@ -6974,13 +6962,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B167" t="s">
         <v>662</v>
       </c>
       <c r="C167" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E167" t="s">
         <v>8</v>
@@ -6988,13 +6976,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B168" t="s">
         <v>662</v>
       </c>
       <c r="C168" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E168" t="s">
         <v>8</v>
@@ -7002,13 +6990,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B169" t="s">
         <v>662</v>
       </c>
       <c r="C169" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E169" t="s">
         <v>8</v>
@@ -7016,13 +7004,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B170" t="s">
         <v>662</v>
       </c>
       <c r="C170" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E170" t="s">
         <v>8</v>
@@ -7030,13 +7018,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B171" t="s">
         <v>662</v>
       </c>
       <c r="C171" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E171" t="s">
         <v>8</v>
@@ -7044,13 +7032,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B172" t="s">
         <v>662</v>
       </c>
       <c r="C172" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E172" t="s">
         <v>8</v>
@@ -7058,13 +7046,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B173" t="s">
         <v>662</v>
       </c>
       <c r="C173" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E173" t="s">
         <v>8</v>
@@ -7072,13 +7060,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B174" t="s">
         <v>662</v>
       </c>
       <c r="C174" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E174" t="s">
         <v>8</v>
@@ -7086,13 +7074,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B175" t="s">
         <v>662</v>
       </c>
       <c r="C175" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E175" t="s">
         <v>8</v>
@@ -7100,13 +7088,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B176" t="s">
         <v>662</v>
       </c>
       <c r="C176" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E176" t="s">
         <v>8</v>
@@ -7114,13 +7102,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B177" t="s">
         <v>662</v>
       </c>
       <c r="C177" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E177" t="s">
         <v>8</v>
@@ -7128,13 +7116,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B178" t="s">
         <v>662</v>
       </c>
       <c r="C178" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E178" t="s">
         <v>8</v>
@@ -7142,13 +7130,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B179" t="s">
         <v>662</v>
       </c>
       <c r="C179" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E179" t="s">
         <v>8</v>
@@ -7156,13 +7144,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B180" t="s">
         <v>662</v>
       </c>
       <c r="C180" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E180" t="s">
         <v>8</v>
@@ -7170,13 +7158,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B181" t="s">
         <v>662</v>
       </c>
       <c r="C181" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E181" t="s">
         <v>8</v>
@@ -7184,13 +7172,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B182" t="s">
         <v>662</v>
       </c>
       <c r="C182" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E182" t="s">
         <v>8</v>
@@ -7198,13 +7186,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B183" t="s">
         <v>662</v>
       </c>
       <c r="C183" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E183" t="s">
         <v>8</v>
@@ -7212,13 +7200,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B184" t="s">
         <v>662</v>
       </c>
       <c r="C184" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E184" t="s">
         <v>8</v>
@@ -7226,13 +7214,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B185" t="s">
         <v>662</v>
       </c>
       <c r="C185" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E185" t="s">
         <v>8</v>
@@ -7240,13 +7228,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B186" t="s">
         <v>662</v>
       </c>
       <c r="C186" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E186" t="s">
         <v>8</v>
@@ -7254,13 +7242,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B187" t="s">
         <v>662</v>
       </c>
       <c r="C187" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E187" t="s">
         <v>8</v>
@@ -7268,13 +7256,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B188" t="s">
         <v>662</v>
       </c>
       <c r="C188" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E188" t="s">
         <v>8</v>
@@ -7282,13 +7270,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B189" t="s">
         <v>662</v>
       </c>
       <c r="C189" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E189" t="s">
         <v>8</v>
@@ -7296,13 +7284,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B190" t="s">
         <v>662</v>
       </c>
       <c r="C190" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E190" t="s">
         <v>8</v>
@@ -7310,13 +7298,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B191" t="s">
         <v>662</v>
       </c>
       <c r="C191" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E191" t="s">
         <v>8</v>
@@ -7324,13 +7312,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B192" t="s">
         <v>662</v>
       </c>
       <c r="C192" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E192" t="s">
         <v>8</v>
@@ -7338,13 +7326,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B193" t="s">
         <v>662</v>
       </c>
       <c r="C193" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E193" t="s">
         <v>8</v>
@@ -7352,13 +7340,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B194" t="s">
         <v>662</v>
       </c>
       <c r="C194" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E194" t="s">
         <v>8</v>
@@ -7366,13 +7354,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B195" t="s">
         <v>662</v>
       </c>
       <c r="C195" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E195" t="s">
         <v>8</v>
@@ -7380,13 +7368,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B196" t="s">
         <v>662</v>
       </c>
       <c r="C196" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E196" t="s">
         <v>8</v>
@@ -7394,13 +7382,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B197" t="s">
         <v>662</v>
       </c>
       <c r="C197" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E197" t="s">
         <v>8</v>
@@ -7408,13 +7396,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B198" t="s">
         <v>662</v>
       </c>
       <c r="C198" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E198" t="s">
         <v>8</v>
@@ -7422,13 +7410,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B199" t="s">
         <v>662</v>
       </c>
       <c r="C199" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E199" t="s">
         <v>8</v>
@@ -7436,13 +7424,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B200" t="s">
         <v>662</v>
       </c>
       <c r="C200" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E200" t="s">
         <v>8</v>
@@ -7450,13 +7438,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B201" t="s">
         <v>662</v>
       </c>
       <c r="C201" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E201" t="s">
         <v>8</v>
@@ -7464,13 +7452,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B202" t="s">
         <v>662</v>
       </c>
       <c r="C202" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E202" t="s">
         <v>8</v>
@@ -7478,13 +7466,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B203" t="s">
         <v>662</v>
       </c>
       <c r="C203" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E203" t="s">
         <v>8</v>
@@ -7492,13 +7480,13 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B204" t="s">
         <v>662</v>
       </c>
       <c r="C204" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E204" t="s">
         <v>8</v>
@@ -7506,13 +7494,13 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B205" t="s">
         <v>662</v>
       </c>
       <c r="C205" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E205" t="s">
         <v>8</v>
@@ -7520,13 +7508,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B206" t="s">
         <v>662</v>
       </c>
       <c r="C206" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E206" t="s">
         <v>8</v>
@@ -7534,13 +7522,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B207" t="s">
         <v>662</v>
       </c>
       <c r="C207" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E207" t="s">
         <v>8</v>
@@ -7548,13 +7536,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B208" t="s">
         <v>662</v>
       </c>
       <c r="C208" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E208" t="s">
         <v>8</v>
@@ -7562,13 +7550,13 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B209" t="s">
         <v>662</v>
       </c>
       <c r="C209" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E209" t="s">
         <v>8</v>
@@ -7576,13 +7564,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B210" t="s">
         <v>662</v>
       </c>
       <c r="C210" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E210" t="s">
         <v>8</v>
@@ -7590,13 +7578,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B211" t="s">
         <v>662</v>
       </c>
       <c r="C211" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E211" t="s">
         <v>8</v>
@@ -7604,13 +7592,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B212" t="s">
         <v>662</v>
       </c>
       <c r="C212" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E212" t="s">
         <v>8</v>
@@ -7618,13 +7606,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B213" t="s">
         <v>662</v>
       </c>
       <c r="C213" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E213" t="s">
         <v>8</v>
@@ -7632,13 +7620,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B214" t="s">
         <v>662</v>
       </c>
       <c r="C214" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E214" t="s">
         <v>8</v>
@@ -7646,13 +7634,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B215" t="s">
         <v>662</v>
       </c>
       <c r="C215" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E215" t="s">
         <v>8</v>
@@ -7660,13 +7648,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B216" t="s">
         <v>662</v>
       </c>
       <c r="C216" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E216" t="s">
         <v>8</v>
@@ -7674,13 +7662,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B217" t="s">
         <v>662</v>
       </c>
       <c r="C217" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E217" t="s">
         <v>8</v>
@@ -7688,13 +7676,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B218" t="s">
         <v>662</v>
       </c>
       <c r="C218" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E218" t="s">
         <v>8</v>
@@ -7702,13 +7690,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B219" t="s">
         <v>662</v>
       </c>
       <c r="C219" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E219" t="s">
         <v>8</v>
@@ -7716,13 +7704,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B220" t="s">
         <v>662</v>
       </c>
       <c r="C220" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E220" t="s">
         <v>8</v>
@@ -7730,13 +7718,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B221" t="s">
         <v>662</v>
       </c>
       <c r="C221" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E221" t="s">
         <v>8</v>
@@ -7744,13 +7732,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B222" t="s">
         <v>662</v>
       </c>
       <c r="C222" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E222" t="s">
         <v>8</v>
@@ -7758,13 +7746,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B223" t="s">
         <v>662</v>
       </c>
       <c r="C223" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E223" t="s">
         <v>8</v>
@@ -7772,13 +7760,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B224" t="s">
         <v>662</v>
       </c>
       <c r="C224" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E224" t="s">
         <v>8</v>
@@ -7786,13 +7774,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B225" t="s">
         <v>662</v>
       </c>
       <c r="C225" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E225" t="s">
         <v>8</v>
@@ -7800,13 +7788,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B226" t="s">
         <v>662</v>
       </c>
       <c r="C226" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E226" t="s">
         <v>8</v>
@@ -7814,13 +7802,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B227" t="s">
         <v>662</v>
       </c>
       <c r="C227" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E227" t="s">
         <v>8</v>
@@ -7828,13 +7816,13 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B228" t="s">
         <v>662</v>
       </c>
       <c r="C228" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E228" t="s">
         <v>8</v>
@@ -7842,13 +7830,13 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B229" t="s">
         <v>662</v>
       </c>
       <c r="C229" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E229" t="s">
         <v>8</v>
@@ -7856,13 +7844,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B230" t="s">
         <v>662</v>
       </c>
       <c r="C230" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E230" t="s">
         <v>8</v>
@@ -7870,13 +7858,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B231" t="s">
         <v>662</v>
       </c>
       <c r="C231" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E231" t="s">
         <v>8</v>
@@ -7884,13 +7872,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B232" t="s">
         <v>662</v>
       </c>
       <c r="C232" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E232" t="s">
         <v>8</v>
@@ -7898,13 +7886,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B233" t="s">
         <v>662</v>
       </c>
       <c r="C233" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E233" t="s">
         <v>8</v>
@@ -7912,13 +7900,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B234" t="s">
         <v>662</v>
       </c>
       <c r="C234" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E234" t="s">
         <v>8</v>
@@ -7926,13 +7914,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B235" t="s">
         <v>662</v>
       </c>
       <c r="C235" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E235" t="s">
         <v>8</v>
@@ -7940,13 +7928,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B236" t="s">
         <v>662</v>
       </c>
       <c r="C236" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E236" t="s">
         <v>8</v>
@@ -7954,13 +7942,13 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B237" t="s">
         <v>662</v>
       </c>
       <c r="C237" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E237" t="s">
         <v>8</v>
@@ -7968,13 +7956,13 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B238" t="s">
         <v>662</v>
       </c>
       <c r="C238" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E238" t="s">
         <v>8</v>
@@ -7982,13 +7970,13 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B239" t="s">
         <v>662</v>
       </c>
       <c r="C239" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E239" t="s">
         <v>8</v>
@@ -7996,13 +7984,13 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B240" t="s">
         <v>662</v>
       </c>
       <c r="C240" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E240" t="s">
         <v>8</v>
@@ -8010,13 +7998,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B241" t="s">
         <v>662</v>
       </c>
       <c r="C241" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E241" t="s">
         <v>8</v>
@@ -8024,13 +8012,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B242" t="s">
         <v>662</v>
       </c>
       <c r="C242" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E242" t="s">
         <v>8</v>
@@ -8038,13 +8026,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B243" t="s">
         <v>662</v>
       </c>
       <c r="C243" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E243" t="s">
         <v>8</v>
@@ -8052,13 +8040,13 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B244" t="s">
         <v>662</v>
       </c>
       <c r="C244" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E244" t="s">
         <v>8</v>
@@ -8066,13 +8054,13 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B245" t="s">
         <v>662</v>
       </c>
       <c r="C245" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E245" t="s">
         <v>8</v>
@@ -8080,13 +8068,13 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B246" t="s">
         <v>662</v>
       </c>
       <c r="C246" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E246" t="s">
         <v>8</v>
@@ -8094,13 +8082,13 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B247" t="s">
         <v>662</v>
       </c>
       <c r="C247" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E247" t="s">
         <v>8</v>
@@ -8108,13 +8096,13 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B248" t="s">
         <v>662</v>
       </c>
       <c r="C248" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E248" t="s">
         <v>8</v>
@@ -8122,13 +8110,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B249" t="s">
         <v>662</v>
       </c>
       <c r="C249" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E249" t="s">
         <v>8</v>
@@ -8136,13 +8124,13 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B250" t="s">
         <v>662</v>
       </c>
       <c r="C250" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E250" t="s">
         <v>8</v>
@@ -8150,13 +8138,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B251" t="s">
         <v>662</v>
       </c>
       <c r="C251" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E251" t="s">
         <v>8</v>
@@ -8164,13 +8152,13 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B252" t="s">
         <v>662</v>
       </c>
       <c r="C252" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E252" t="s">
         <v>8</v>
@@ -8178,13 +8166,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B253" t="s">
         <v>662</v>
       </c>
       <c r="C253" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E253" t="s">
         <v>8</v>
@@ -8192,13 +8180,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B254" t="s">
         <v>662</v>
       </c>
       <c r="C254" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E254" t="s">
         <v>8</v>
@@ -8206,13 +8194,13 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B255" t="s">
         <v>662</v>
       </c>
       <c r="C255" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E255" t="s">
         <v>8</v>
@@ -8220,13 +8208,13 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B256" t="s">
         <v>662</v>
       </c>
       <c r="C256" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E256" t="s">
         <v>8</v>
@@ -8234,13 +8222,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B257" t="s">
         <v>662</v>
       </c>
       <c r="C257" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E257" t="s">
         <v>8</v>
@@ -8248,13 +8236,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B258" t="s">
         <v>662</v>
       </c>
       <c r="C258" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E258" t="s">
         <v>8</v>
@@ -8262,13 +8250,13 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B259" t="s">
         <v>662</v>
       </c>
       <c r="C259" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E259" t="s">
         <v>8</v>
@@ -8276,13 +8264,13 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B260" t="s">
         <v>662</v>
       </c>
       <c r="C260" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E260" t="s">
         <v>8</v>
@@ -8290,13 +8278,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B261" t="s">
         <v>662</v>
       </c>
       <c r="C261" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E261" t="s">
         <v>8</v>
@@ -8304,13 +8292,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B262" t="s">
         <v>662</v>
       </c>
       <c r="C262" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E262" t="s">
         <v>8</v>
@@ -8318,13 +8306,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B263" t="s">
         <v>662</v>
       </c>
       <c r="C263" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E263" t="s">
         <v>8</v>
@@ -8332,13 +8320,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B264" t="s">
         <v>662</v>
       </c>
       <c r="C264" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E264" t="s">
         <v>8</v>
@@ -8346,13 +8334,13 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B265" t="s">
         <v>662</v>
       </c>
       <c r="C265" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E265" t="s">
         <v>8</v>
@@ -8360,13 +8348,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B266" t="s">
         <v>662</v>
       </c>
       <c r="C266" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E266" t="s">
         <v>8</v>
@@ -8374,13 +8362,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B267" t="s">
         <v>662</v>
       </c>
       <c r="C267" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E267" t="s">
         <v>8</v>
@@ -8388,13 +8376,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B268" t="s">
         <v>662</v>
       </c>
       <c r="C268" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E268" t="s">
         <v>8</v>
@@ -8402,13 +8390,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B269" t="s">
         <v>662</v>
       </c>
       <c r="C269" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E269" t="s">
         <v>8</v>
@@ -8416,13 +8404,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B270" t="s">
         <v>662</v>
       </c>
       <c r="C270" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E270" t="s">
         <v>8</v>
@@ -8430,13 +8418,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B271" t="s">
         <v>662</v>
       </c>
       <c r="C271" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E271" t="s">
         <v>8</v>
@@ -8444,13 +8432,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B272" t="s">
         <v>662</v>
       </c>
       <c r="C272" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E272" t="s">
         <v>8</v>
@@ -8458,13 +8446,13 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B273" t="s">
         <v>662</v>
       </c>
       <c r="C273" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E273" t="s">
         <v>8</v>
@@ -8472,13 +8460,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B274" t="s">
         <v>662</v>
       </c>
       <c r="C274" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E274" t="s">
         <v>8</v>
@@ -8486,13 +8474,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B275" t="s">
         <v>662</v>
       </c>
       <c r="C275" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E275" t="s">
         <v>8</v>
@@ -8500,13 +8488,13 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B276" t="s">
         <v>662</v>
       </c>
       <c r="C276" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E276" t="s">
         <v>8</v>
@@ -8514,13 +8502,13 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B277" t="s">
         <v>662</v>
       </c>
       <c r="C277" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E277" t="s">
         <v>8</v>
@@ -8528,13 +8516,13 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B278" t="s">
         <v>662</v>
       </c>
       <c r="C278" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E278" t="s">
         <v>8</v>
@@ -8542,13 +8530,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B279" t="s">
         <v>662</v>
       </c>
       <c r="C279" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E279" t="s">
         <v>8</v>
@@ -8556,13 +8544,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B280" t="s">
         <v>662</v>
       </c>
       <c r="C280" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E280" t="s">
         <v>8</v>
@@ -8570,13 +8558,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B281" t="s">
         <v>662</v>
       </c>
       <c r="C281" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E281" t="s">
         <v>8</v>
@@ -8584,13 +8572,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B282" t="s">
         <v>662</v>
       </c>
       <c r="C282" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E282" t="s">
         <v>8</v>
@@ -8598,13 +8586,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B283" t="s">
         <v>662</v>
       </c>
       <c r="C283" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E283" t="s">
         <v>8</v>
@@ -8612,13 +8600,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B284" t="s">
         <v>662</v>
       </c>
       <c r="C284" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E284" t="s">
         <v>8</v>
@@ -8626,13 +8614,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B285" t="s">
         <v>662</v>
       </c>
       <c r="C285" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E285" t="s">
         <v>8</v>
@@ -8640,13 +8628,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B286" t="s">
         <v>662</v>
       </c>
       <c r="C286" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E286" t="s">
         <v>8</v>
@@ -8654,13 +8642,13 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B287" t="s">
         <v>662</v>
       </c>
       <c r="C287" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E287" t="s">
         <v>8</v>
@@ -8668,13 +8656,13 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B288" t="s">
         <v>662</v>
       </c>
       <c r="C288" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E288" t="s">
         <v>8</v>
@@ -8682,13 +8670,13 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B289" t="s">
         <v>662</v>
       </c>
       <c r="C289" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E289" t="s">
         <v>8</v>
@@ -8696,13 +8684,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B290" t="s">
         <v>662</v>
       </c>
       <c r="C290" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E290" t="s">
         <v>8</v>
@@ -8710,13 +8698,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B291" t="s">
         <v>662</v>
       </c>
       <c r="C291" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E291" t="s">
         <v>8</v>
@@ -8724,13 +8712,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B292" t="s">
         <v>662</v>
       </c>
       <c r="C292" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E292" t="s">
         <v>8</v>
@@ -8738,13 +8726,13 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B293" t="s">
         <v>662</v>
       </c>
       <c r="C293" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E293" t="s">
         <v>8</v>
@@ -8752,13 +8740,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B294" t="s">
         <v>662</v>
       </c>
       <c r="C294" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E294" t="s">
         <v>8</v>
@@ -8766,13 +8754,13 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B295" t="s">
         <v>662</v>
       </c>
       <c r="C295" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E295" t="s">
         <v>8</v>
@@ -8780,13 +8768,13 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B296" t="s">
         <v>662</v>
       </c>
       <c r="C296" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E296" t="s">
         <v>8</v>
@@ -8794,13 +8782,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B297" t="s">
         <v>662</v>
       </c>
       <c r="C297" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E297" t="s">
         <v>8</v>
@@ -8808,13 +8796,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B298" t="s">
         <v>662</v>
       </c>
       <c r="C298" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E298" t="s">
         <v>8</v>
@@ -8822,13 +8810,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B299" t="s">
         <v>662</v>
       </c>
       <c r="C299" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E299" t="s">
         <v>8</v>
@@ -8836,13 +8824,13 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B300" t="s">
         <v>662</v>
       </c>
       <c r="C300" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E300" t="s">
         <v>8</v>
@@ -8850,13 +8838,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B301" t="s">
         <v>662</v>
       </c>
       <c r="C301" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E301" t="s">
         <v>8</v>
@@ -8864,13 +8852,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B302" t="s">
         <v>662</v>
       </c>
       <c r="C302" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E302" t="s">
         <v>8</v>
@@ -8878,13 +8866,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B303" t="s">
         <v>662</v>
       </c>
       <c r="C303" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E303" t="s">
         <v>8</v>
@@ -8892,13 +8880,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B304" t="s">
         <v>662</v>
       </c>
       <c r="C304" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E304" t="s">
         <v>8</v>
@@ -8906,13 +8894,13 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B305" t="s">
         <v>662</v>
       </c>
       <c r="C305" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E305" t="s">
         <v>8</v>
@@ -8920,13 +8908,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B306" t="s">
         <v>662</v>
       </c>
       <c r="C306" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E306" t="s">
         <v>8</v>
@@ -8934,13 +8922,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B307" t="s">
         <v>662</v>
       </c>
       <c r="C307" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E307" t="s">
         <v>8</v>
@@ -8948,13 +8936,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B308" t="s">
         <v>662</v>
       </c>
       <c r="C308" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E308" t="s">
         <v>8</v>
@@ -8962,13 +8950,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B309" t="s">
         <v>662</v>
       </c>
       <c r="C309" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E309" t="s">
         <v>8</v>
@@ -8976,13 +8964,13 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B310" t="s">
         <v>662</v>
       </c>
       <c r="C310" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E310" t="s">
         <v>8</v>
@@ -8990,13 +8978,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B311" t="s">
         <v>662</v>
       </c>
       <c r="C311" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E311" t="s">
         <v>8</v>
@@ -9004,13 +8992,13 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B312" t="s">
         <v>662</v>
       </c>
       <c r="C312" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E312" t="s">
         <v>8</v>
@@ -9018,13 +9006,13 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B313" t="s">
         <v>662</v>
       </c>
       <c r="C313" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E313" t="s">
         <v>8</v>
@@ -9032,13 +9020,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B314" t="s">
         <v>662</v>
       </c>
       <c r="C314" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E314" t="s">
         <v>8</v>
@@ -9046,13 +9034,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B315" t="s">
         <v>662</v>
       </c>
       <c r="C315" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E315" t="s">
         <v>8</v>
@@ -9060,13 +9048,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B316" t="s">
         <v>662</v>
       </c>
       <c r="C316" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E316" t="s">
         <v>8</v>
@@ -9074,13 +9062,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B317" t="s">
         <v>662</v>
       </c>
       <c r="C317" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E317" t="s">
         <v>8</v>
@@ -9088,13 +9076,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B318" t="s">
         <v>662</v>
       </c>
       <c r="C318" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E318" t="s">
         <v>8</v>
@@ -9102,13 +9090,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B319" t="s">
         <v>662</v>
       </c>
       <c r="C319" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E319" t="s">
         <v>8</v>
@@ -9116,13 +9104,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B320" t="s">
         <v>662</v>
       </c>
       <c r="C320" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E320" t="s">
         <v>8</v>
@@ -9130,13 +9118,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B321" t="s">
         <v>662</v>
       </c>
       <c r="C321" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E321" t="s">
         <v>8</v>
@@ -9144,13 +9132,13 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B322" t="s">
         <v>662</v>
       </c>
       <c r="C322" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E322" t="s">
         <v>8</v>
@@ -9158,13 +9146,13 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B323" t="s">
         <v>662</v>
       </c>
       <c r="C323" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E323" t="s">
         <v>8</v>
@@ -9172,13 +9160,13 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B324" t="s">
         <v>662</v>
       </c>
       <c r="C324" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E324" t="s">
         <v>8</v>
@@ -9186,13 +9174,13 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B325" t="s">
         <v>662</v>
       </c>
       <c r="C325" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E325" t="s">
         <v>8</v>
@@ -9200,13 +9188,13 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B326" t="s">
         <v>662</v>
       </c>
       <c r="C326" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E326" t="s">
         <v>8</v>
@@ -9214,13 +9202,13 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B327" t="s">
         <v>662</v>
       </c>
       <c r="C327" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E327" t="s">
         <v>8</v>
@@ -9228,13 +9216,13 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B328" t="s">
         <v>662</v>
       </c>
       <c r="C328" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E328" t="s">
         <v>8</v>
@@ -9242,13 +9230,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B329" t="s">
         <v>662</v>
       </c>
       <c r="C329" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E329" t="s">
         <v>8</v>
@@ -9256,13 +9244,13 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B330" t="s">
         <v>662</v>
       </c>
       <c r="C330" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E330" t="s">
         <v>8</v>
@@ -9270,13 +9258,13 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B331" t="s">
         <v>662</v>
       </c>
       <c r="C331" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E331" t="s">
         <v>8</v>
@@ -9284,13 +9272,13 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B332" t="s">
         <v>662</v>
       </c>
       <c r="C332" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E332" t="s">
         <v>8</v>
@@ -9298,13 +9286,13 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B333" t="s">
         <v>662</v>
       </c>
       <c r="C333" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E333" t="s">
         <v>8</v>
@@ -9312,13 +9300,13 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B334" t="s">
         <v>662</v>
       </c>
       <c r="C334" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E334" t="s">
         <v>8</v>
@@ -9326,13 +9314,13 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B335" t="s">
         <v>662</v>
       </c>
       <c r="C335" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E335" t="s">
         <v>8</v>
@@ -9340,13 +9328,13 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B336" t="s">
         <v>662</v>
       </c>
       <c r="C336" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E336" t="s">
         <v>8</v>
@@ -9354,13 +9342,13 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B337" t="s">
         <v>662</v>
       </c>
       <c r="C337" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E337" t="s">
         <v>8</v>
@@ -9368,13 +9356,13 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B338" t="s">
         <v>662</v>
       </c>
       <c r="C338" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E338" t="s">
         <v>8</v>
@@ -9382,13 +9370,13 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B339" t="s">
         <v>662</v>
       </c>
       <c r="C339" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E339" t="s">
         <v>8</v>
@@ -9396,13 +9384,13 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B340" t="s">
         <v>662</v>
       </c>
       <c r="C340" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E340" t="s">
         <v>8</v>
@@ -9410,13 +9398,13 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B341" t="s">
         <v>662</v>
       </c>
       <c r="C341" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E341" t="s">
         <v>8</v>
@@ -9424,13 +9412,13 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B342" t="s">
         <v>662</v>
       </c>
       <c r="C342" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E342" t="s">
         <v>8</v>
@@ -9438,13 +9426,13 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B343" t="s">
         <v>662</v>
       </c>
       <c r="C343" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E343" t="s">
         <v>8</v>
@@ -9452,13 +9440,13 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B344" t="s">
         <v>662</v>
       </c>
       <c r="C344" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E344" t="s">
         <v>8</v>
@@ -9466,13 +9454,13 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B345" t="s">
         <v>662</v>
       </c>
       <c r="C345" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E345" t="s">
         <v>8</v>
@@ -9480,13 +9468,13 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B346" t="s">
         <v>662</v>
       </c>
       <c r="C346" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E346" t="s">
         <v>8</v>
@@ -9494,13 +9482,13 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B347" t="s">
         <v>662</v>
       </c>
       <c r="C347" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E347" t="s">
         <v>8</v>
@@ -9508,13 +9496,13 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B348" t="s">
         <v>662</v>
       </c>
       <c r="C348" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E348" t="s">
         <v>8</v>
@@ -9522,13 +9510,13 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B349" t="s">
         <v>662</v>
       </c>
       <c r="C349" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E349" t="s">
         <v>8</v>
@@ -9536,13 +9524,13 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B350" t="s">
         <v>662</v>
       </c>
       <c r="C350" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E350" t="s">
         <v>8</v>
@@ -9550,13 +9538,13 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B351" t="s">
         <v>662</v>
       </c>
       <c r="C351" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E351" t="s">
         <v>8</v>
@@ -9564,13 +9552,13 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B352" t="s">
         <v>662</v>
       </c>
       <c r="C352" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E352" t="s">
         <v>8</v>
@@ -9578,13 +9566,13 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B353" t="s">
         <v>662</v>
       </c>
       <c r="C353" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E353" t="s">
         <v>8</v>
@@ -9592,13 +9580,13 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B354" t="s">
         <v>662</v>
       </c>
       <c r="C354" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E354" t="s">
         <v>8</v>
@@ -9606,13 +9594,13 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B355" t="s">
         <v>662</v>
       </c>
       <c r="C355" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E355" t="s">
         <v>8</v>
@@ -9620,13 +9608,13 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B356" t="s">
         <v>662</v>
       </c>
       <c r="C356" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E356" t="s">
         <v>8</v>
@@ -9634,13 +9622,13 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B357" t="s">
         <v>662</v>
       </c>
       <c r="C357" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E357" t="s">
         <v>8</v>
@@ -9648,13 +9636,13 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B358" t="s">
         <v>662</v>
       </c>
       <c r="C358" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E358" t="s">
         <v>8</v>
@@ -9662,13 +9650,13 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B359" t="s">
         <v>662</v>
       </c>
       <c r="C359" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E359" t="s">
         <v>8</v>
@@ -9676,13 +9664,13 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B360" t="s">
         <v>662</v>
       </c>
       <c r="C360" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E360" t="s">
         <v>8</v>
@@ -9690,13 +9678,13 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B361" t="s">
         <v>662</v>
       </c>
       <c r="C361" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E361" t="s">
         <v>8</v>
@@ -9704,13 +9692,13 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B362" t="s">
         <v>662</v>
       </c>
       <c r="C362" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E362" t="s">
         <v>8</v>
@@ -9718,13 +9706,13 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B363" t="s">
         <v>662</v>
       </c>
       <c r="C363" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E363" t="s">
         <v>8</v>
@@ -9732,13 +9720,13 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B364" t="s">
         <v>662</v>
       </c>
       <c r="C364" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E364" t="s">
         <v>8</v>
@@ -9746,13 +9734,13 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B365" t="s">
         <v>662</v>
       </c>
       <c r="C365" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E365" t="s">
         <v>8</v>
@@ -9760,13 +9748,13 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B366" t="s">
         <v>662</v>
       </c>
       <c r="C366" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E366" t="s">
         <v>8</v>
@@ -9774,13 +9762,13 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B367" t="s">
         <v>662</v>
       </c>
       <c r="C367" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E367" t="s">
         <v>8</v>
@@ -9788,13 +9776,13 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B368" t="s">
         <v>662</v>
       </c>
       <c r="C368" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E368" t="s">
         <v>8</v>
@@ -9802,13 +9790,13 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B369" t="s">
         <v>662</v>
       </c>
       <c r="C369" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E369" t="s">
         <v>8</v>
@@ -9816,13 +9804,13 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B370" t="s">
         <v>662</v>
       </c>
       <c r="C370" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E370" t="s">
         <v>8</v>
@@ -9830,13 +9818,13 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B371" t="s">
         <v>662</v>
       </c>
       <c r="C371" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E371" t="s">
         <v>8</v>
@@ -9844,13 +9832,13 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B372" t="s">
         <v>662</v>
       </c>
       <c r="C372" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E372" t="s">
         <v>8</v>
@@ -9858,13 +9846,13 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B373" t="s">
         <v>662</v>
       </c>
       <c r="C373" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E373" t="s">
         <v>8</v>
@@ -9872,13 +9860,13 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B374" t="s">
         <v>662</v>
       </c>
       <c r="C374" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E374" t="s">
         <v>8</v>
@@ -9886,13 +9874,13 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B375" t="s">
         <v>662</v>
       </c>
       <c r="C375" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E375" t="s">
         <v>8</v>
@@ -9900,13 +9888,13 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B376" t="s">
         <v>662</v>
       </c>
       <c r="C376" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E376" t="s">
         <v>8</v>
@@ -9914,13 +9902,13 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B377" t="s">
         <v>662</v>
       </c>
       <c r="C377" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E377" t="s">
         <v>8</v>
@@ -9928,13 +9916,13 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B378" t="s">
         <v>662</v>
       </c>
       <c r="C378" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E378" t="s">
         <v>8</v>
@@ -9942,13 +9930,13 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B379" t="s">
         <v>662</v>
       </c>
       <c r="C379" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E379" t="s">
         <v>8</v>
@@ -9956,13 +9944,13 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B380" t="s">
         <v>662</v>
       </c>
       <c r="C380" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E380" t="s">
         <v>8</v>
@@ -9970,13 +9958,13 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B381" t="s">
         <v>662</v>
       </c>
       <c r="C381" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E381" t="s">
         <v>8</v>
@@ -9984,13 +9972,13 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B382" t="s">
         <v>662</v>
       </c>
       <c r="C382" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E382" t="s">
         <v>8</v>
@@ -9998,13 +9986,13 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B383" t="s">
         <v>662</v>
       </c>
       <c r="C383" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E383" t="s">
         <v>8</v>
@@ -10012,13 +10000,13 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B384" t="s">
         <v>662</v>
       </c>
       <c r="C384" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E384" t="s">
         <v>8</v>
@@ -10026,13 +10014,13 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B385" t="s">
         <v>662</v>
       </c>
       <c r="C385" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E385" t="s">
         <v>8</v>
@@ -10040,13 +10028,13 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B386" t="s">
         <v>662</v>
       </c>
       <c r="C386" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E386" t="s">
         <v>8</v>
@@ -10054,13 +10042,13 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B387" t="s">
         <v>662</v>
       </c>
       <c r="C387" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E387" t="s">
         <v>8</v>
@@ -10068,13 +10056,13 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B388" t="s">
         <v>662</v>
       </c>
       <c r="C388" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E388" t="s">
         <v>8</v>
@@ -10082,13 +10070,13 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B389" t="s">
         <v>662</v>
       </c>
       <c r="C389" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E389" t="s">
         <v>8</v>
@@ -10096,13 +10084,13 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B390" t="s">
         <v>662</v>
       </c>
       <c r="C390" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E390" t="s">
         <v>8</v>
@@ -10110,13 +10098,13 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B391" t="s">
         <v>662</v>
       </c>
       <c r="C391" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E391" t="s">
         <v>8</v>
@@ -10124,13 +10112,13 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B392" t="s">
         <v>662</v>
       </c>
       <c r="C392" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E392" t="s">
         <v>8</v>
@@ -10138,13 +10126,13 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B393" t="s">
         <v>662</v>
       </c>
       <c r="C393" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E393" t="s">
         <v>8</v>
@@ -10152,13 +10140,13 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B394" t="s">
         <v>662</v>
       </c>
       <c r="C394" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E394" t="s">
         <v>8</v>
@@ -10166,13 +10154,13 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B395" t="s">
         <v>662</v>
       </c>
       <c r="C395" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E395" t="s">
         <v>8</v>
@@ -10180,13 +10168,13 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B396" t="s">
         <v>662</v>
       </c>
       <c r="C396" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E396" t="s">
         <v>8</v>
@@ -10194,13 +10182,13 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B397" t="s">
         <v>662</v>
       </c>
       <c r="C397" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E397" t="s">
         <v>8</v>
@@ -10208,13 +10196,13 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B398" t="s">
         <v>662</v>
       </c>
       <c r="C398" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E398" t="s">
         <v>8</v>
@@ -10222,13 +10210,13 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B399" t="s">
         <v>662</v>
       </c>
       <c r="C399" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E399" t="s">
         <v>8</v>
@@ -10236,13 +10224,13 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B400" t="s">
         <v>662</v>
       </c>
       <c r="C400" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E400" t="s">
         <v>8</v>
@@ -10250,13 +10238,13 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B401" t="s">
         <v>662</v>
       </c>
       <c r="C401" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E401" t="s">
         <v>8</v>
@@ -10264,13 +10252,13 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B402" t="s">
         <v>662</v>
       </c>
       <c r="C402" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E402" t="s">
         <v>8</v>
@@ -10278,13 +10266,13 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B403" t="s">
         <v>662</v>
       </c>
       <c r="C403" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E403" t="s">
         <v>8</v>
@@ -10292,13 +10280,13 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B404" t="s">
         <v>662</v>
       </c>
       <c r="C404" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E404" t="s">
         <v>8</v>
@@ -10306,13 +10294,13 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B405" t="s">
         <v>662</v>
       </c>
       <c r="C405" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E405" t="s">
         <v>8</v>
@@ -10320,13 +10308,13 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B406" t="s">
         <v>662</v>
       </c>
       <c r="C406" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E406" t="s">
         <v>8</v>
@@ -10334,13 +10322,13 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B407" t="s">
         <v>662</v>
       </c>
       <c r="C407" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E407" t="s">
         <v>8</v>
@@ -10348,13 +10336,13 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B408" t="s">
         <v>662</v>
       </c>
       <c r="C408" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E408" t="s">
         <v>8</v>
@@ -10362,13 +10350,13 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B409" t="s">
         <v>662</v>
       </c>
       <c r="C409" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E409" t="s">
         <v>8</v>
@@ -10376,13 +10364,13 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B410" t="s">
         <v>662</v>
       </c>
       <c r="C410" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E410" t="s">
         <v>8</v>
@@ -10390,13 +10378,13 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B411" t="s">
         <v>662</v>
       </c>
       <c r="C411" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E411" t="s">
         <v>8</v>
@@ -10404,13 +10392,13 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B412" t="s">
         <v>662</v>
       </c>
       <c r="C412" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E412" t="s">
         <v>8</v>
@@ -10418,13 +10406,13 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B413" t="s">
         <v>662</v>
       </c>
       <c r="C413" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E413" t="s">
         <v>8</v>
@@ -10432,13 +10420,13 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B414" t="s">
         <v>662</v>
       </c>
       <c r="C414" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E414" t="s">
         <v>8</v>
@@ -10446,13 +10434,13 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B415" t="s">
         <v>662</v>
       </c>
       <c r="C415" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E415" t="s">
         <v>8</v>
@@ -10460,13 +10448,13 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B416" t="s">
         <v>662</v>
       </c>
       <c r="C416" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E416" t="s">
         <v>8</v>
@@ -10474,13 +10462,13 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B417" t="s">
         <v>662</v>
       </c>
       <c r="C417" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E417" t="s">
         <v>8</v>
@@ -10488,13 +10476,13 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B418" t="s">
         <v>662</v>
       </c>
       <c r="C418" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E418" t="s">
         <v>8</v>
@@ -10502,13 +10490,13 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B419" t="s">
         <v>662</v>
       </c>
       <c r="C419" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E419" t="s">
         <v>8</v>
@@ -10516,13 +10504,13 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B420" t="s">
         <v>662</v>
       </c>
       <c r="C420" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E420" t="s">
         <v>8</v>
@@ -10530,13 +10518,13 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B421" t="s">
         <v>662</v>
       </c>
       <c r="C421" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E421" t="s">
         <v>8</v>
@@ -10544,13 +10532,13 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B422" t="s">
         <v>662</v>
       </c>
       <c r="C422" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E422" t="s">
         <v>8</v>
@@ -10558,13 +10546,13 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B423" t="s">
         <v>662</v>
       </c>
       <c r="C423" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E423" t="s">
         <v>8</v>
@@ -10572,13 +10560,13 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B424" t="s">
         <v>662</v>
       </c>
       <c r="C424" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E424" t="s">
         <v>8</v>
@@ -10586,13 +10574,13 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B425" t="s">
         <v>662</v>
       </c>
       <c r="C425" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E425" t="s">
         <v>8</v>
@@ -10600,13 +10588,13 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B426" t="s">
         <v>662</v>
       </c>
       <c r="C426" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E426" t="s">
         <v>8</v>
@@ -10614,13 +10602,13 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B427" t="s">
         <v>662</v>
       </c>
       <c r="C427" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E427" t="s">
         <v>8</v>
@@ -10628,13 +10616,13 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B428" t="s">
         <v>662</v>
       </c>
       <c r="C428" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E428" t="s">
         <v>8</v>
@@ -10642,13 +10630,13 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B429" t="s">
         <v>662</v>
       </c>
       <c r="C429" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E429" t="s">
         <v>8</v>
@@ -10656,13 +10644,13 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B430" t="s">
         <v>662</v>
       </c>
       <c r="C430" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E430" t="s">
         <v>8</v>
@@ -10670,13 +10658,13 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B431" t="s">
         <v>662</v>
       </c>
       <c r="C431" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E431" t="s">
         <v>8</v>
@@ -10684,13 +10672,13 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B432" t="s">
         <v>662</v>
       </c>
       <c r="C432" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E432" t="s">
         <v>8</v>
@@ -10698,13 +10686,13 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B433" t="s">
         <v>662</v>
       </c>
       <c r="C433" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E433" t="s">
         <v>8</v>
@@ -10712,13 +10700,13 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B434" t="s">
         <v>662</v>
       </c>
       <c r="C434" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E434" t="s">
         <v>8</v>
@@ -10726,13 +10714,13 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B435" t="s">
         <v>662</v>
       </c>
       <c r="C435" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E435" t="s">
         <v>8</v>
@@ -10740,13 +10728,13 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B436" t="s">
         <v>662</v>
       </c>
       <c r="C436" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E436" t="s">
         <v>8</v>
@@ -10754,13 +10742,13 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B437" t="s">
         <v>662</v>
       </c>
       <c r="C437" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E437" t="s">
         <v>8</v>
@@ -10768,13 +10756,13 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B438" t="s">
         <v>662</v>
       </c>
       <c r="C438" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E438" t="s">
         <v>8</v>
@@ -10782,13 +10770,13 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B439" t="s">
         <v>662</v>
       </c>
       <c r="C439" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E439" t="s">
         <v>8</v>
@@ -10796,13 +10784,13 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B440" t="s">
         <v>662</v>
       </c>
       <c r="C440" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E440" t="s">
         <v>8</v>
@@ -10810,13 +10798,13 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B441" t="s">
         <v>662</v>
       </c>
       <c r="C441" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E441" t="s">
         <v>8</v>
@@ -10824,13 +10812,13 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B442" t="s">
         <v>662</v>
       </c>
       <c r="C442" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E442" t="s">
         <v>8</v>
@@ -10838,13 +10826,13 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B443" t="s">
         <v>662</v>
       </c>
       <c r="C443" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E443" t="s">
         <v>8</v>
@@ -10852,13 +10840,13 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B444" t="s">
         <v>662</v>
       </c>
       <c r="C444" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E444" t="s">
         <v>8</v>
@@ -10866,13 +10854,13 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B445" t="s">
         <v>662</v>
       </c>
       <c r="C445" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E445" t="s">
         <v>8</v>
@@ -10880,13 +10868,13 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B446" t="s">
         <v>662</v>
       </c>
       <c r="C446" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E446" t="s">
         <v>8</v>
@@ -10894,13 +10882,13 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B447" t="s">
         <v>662</v>
       </c>
       <c r="C447" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E447" t="s">
         <v>8</v>
@@ -10908,13 +10896,13 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B448" t="s">
         <v>662</v>
       </c>
       <c r="C448" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E448" t="s">
         <v>8</v>
@@ -10922,13 +10910,13 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B449" t="s">
         <v>662</v>
       </c>
       <c r="C449" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E449" t="s">
         <v>8</v>
@@ -10936,13 +10924,13 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B450" t="s">
         <v>662</v>
       </c>
       <c r="C450" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E450" t="s">
         <v>8</v>
@@ -10950,13 +10938,13 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B451" t="s">
         <v>662</v>
       </c>
       <c r="C451" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E451" t="s">
         <v>8</v>
@@ -10964,13 +10952,13 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B452" t="s">
         <v>662</v>
       </c>
       <c r="C452" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E452" t="s">
         <v>8</v>
@@ -10978,13 +10966,13 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B453" t="s">
         <v>662</v>
       </c>
       <c r="C453" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E453" t="s">
         <v>8</v>
@@ -10992,13 +10980,13 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B454" t="s">
         <v>662</v>
       </c>
       <c r="C454" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E454" t="s">
         <v>8</v>
@@ -11006,13 +10994,13 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B455" t="s">
         <v>662</v>
       </c>
       <c r="C455" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E455" t="s">
         <v>8</v>
@@ -11020,13 +11008,13 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B456" t="s">
         <v>662</v>
       </c>
       <c r="C456" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E456" t="s">
         <v>8</v>
@@ -11034,13 +11022,13 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B457" t="s">
         <v>662</v>
       </c>
       <c r="C457" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E457" t="s">
         <v>8</v>
@@ -11048,13 +11036,13 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B458" t="s">
         <v>662</v>
       </c>
       <c r="C458" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E458" t="s">
         <v>8</v>
@@ -11062,13 +11050,13 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B459" t="s">
         <v>662</v>
       </c>
       <c r="C459" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E459" t="s">
         <v>8</v>
@@ -11076,13 +11064,13 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B460" t="s">
         <v>662</v>
       </c>
       <c r="C460" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E460" t="s">
         <v>8</v>
@@ -11090,13 +11078,13 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B461" t="s">
         <v>662</v>
       </c>
       <c r="C461" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E461" t="s">
         <v>8</v>
@@ -11104,13 +11092,13 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B462" t="s">
         <v>662</v>
       </c>
       <c r="C462" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E462" t="s">
         <v>8</v>
@@ -11118,13 +11106,13 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B463" t="s">
         <v>662</v>
       </c>
       <c r="C463" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E463" t="s">
         <v>8</v>
@@ -11132,13 +11120,13 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B464" t="s">
         <v>662</v>
       </c>
       <c r="C464" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E464" t="s">
         <v>8</v>
@@ -11146,13 +11134,13 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B465" t="s">
         <v>662</v>
       </c>
       <c r="C465" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E465" t="s">
         <v>8</v>
@@ -11160,13 +11148,13 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B466" t="s">
         <v>662</v>
       </c>
       <c r="C466" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E466" t="s">
         <v>8</v>
@@ -11174,13 +11162,13 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B467" t="s">
         <v>662</v>
       </c>
       <c r="C467" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E467" t="s">
         <v>8</v>
@@ -11188,13 +11176,13 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B468" t="s">
         <v>662</v>
       </c>
       <c r="C468" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E468" t="s">
         <v>8</v>
@@ -11202,13 +11190,13 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B469" t="s">
         <v>662</v>
       </c>
       <c r="C469" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E469" t="s">
         <v>8</v>
@@ -11216,13 +11204,13 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B470" t="s">
         <v>662</v>
       </c>
       <c r="C470" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E470" t="s">
         <v>8</v>
@@ -11230,13 +11218,13 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B471" t="s">
         <v>662</v>
       </c>
       <c r="C471" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E471" t="s">
         <v>8</v>
@@ -11244,13 +11232,13 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B472" t="s">
         <v>662</v>
       </c>
       <c r="C472" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E472" t="s">
         <v>8</v>
@@ -11258,13 +11246,13 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B473" t="s">
         <v>662</v>
       </c>
       <c r="C473" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E473" t="s">
         <v>8</v>
@@ -11272,13 +11260,13 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B474" t="s">
         <v>662</v>
       </c>
       <c r="C474" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E474" t="s">
         <v>8</v>
@@ -11286,13 +11274,13 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B475" t="s">
         <v>662</v>
       </c>
       <c r="C475" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E475" t="s">
         <v>8</v>
@@ -11300,13 +11288,13 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B476" t="s">
         <v>662</v>
       </c>
       <c r="C476" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E476" t="s">
         <v>8</v>
@@ -11314,13 +11302,13 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B477" t="s">
         <v>662</v>
       </c>
       <c r="C477" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E477" t="s">
         <v>8</v>
@@ -11328,13 +11316,13 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B478" t="s">
         <v>662</v>
       </c>
       <c r="C478" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E478" t="s">
         <v>8</v>
@@ -11342,13 +11330,13 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B479" t="s">
         <v>662</v>
       </c>
       <c r="C479" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E479" t="s">
         <v>8</v>
@@ -11356,13 +11344,13 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B480" t="s">
         <v>662</v>
       </c>
       <c r="C480" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E480" t="s">
         <v>8</v>
@@ -11370,13 +11358,13 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B481" t="s">
         <v>662</v>
       </c>
       <c r="C481" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E481" t="s">
         <v>8</v>
@@ -11384,13 +11372,13 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B482" t="s">
         <v>662</v>
       </c>
       <c r="C482" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E482" t="s">
         <v>8</v>
@@ -11398,13 +11386,13 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B483" t="s">
         <v>662</v>
       </c>
       <c r="C483" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E483" t="s">
         <v>8</v>
@@ -11412,13 +11400,13 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B484" t="s">
         <v>662</v>
       </c>
       <c r="C484" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E484" t="s">
         <v>8</v>
@@ -11426,13 +11414,13 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B485" t="s">
         <v>662</v>
       </c>
       <c r="C485" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E485" t="s">
         <v>8</v>
@@ -11440,13 +11428,13 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B486" t="s">
         <v>662</v>
       </c>
       <c r="C486" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E486" t="s">
         <v>8</v>
@@ -11454,13 +11442,13 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B487" t="s">
         <v>662</v>
       </c>
       <c r="C487" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E487" t="s">
         <v>8</v>
@@ -11468,13 +11456,13 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B488" t="s">
         <v>662</v>
       </c>
       <c r="C488" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E488" t="s">
         <v>8</v>
@@ -11482,13 +11470,13 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B489" t="s">
         <v>662</v>
       </c>
       <c r="C489" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E489" t="s">
         <v>8</v>
@@ -11496,13 +11484,13 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B490" t="s">
         <v>662</v>
       </c>
       <c r="C490" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E490" t="s">
         <v>8</v>
@@ -11510,13 +11498,13 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B491" t="s">
         <v>662</v>
       </c>
       <c r="C491" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E491" t="s">
         <v>8</v>
@@ -11524,13 +11512,13 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B492" t="s">
         <v>662</v>
       </c>
       <c r="C492" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E492" t="s">
         <v>8</v>
@@ -11538,13 +11526,13 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B493" t="s">
         <v>662</v>
       </c>
       <c r="C493" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E493" t="s">
         <v>8</v>
@@ -11552,13 +11540,13 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B494" t="s">
         <v>662</v>
       </c>
       <c r="C494" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E494" t="s">
         <v>8</v>
@@ -11566,13 +11554,13 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B495" t="s">
         <v>662</v>
       </c>
       <c r="C495" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E495" t="s">
         <v>8</v>
@@ -11580,13 +11568,13 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B496" t="s">
         <v>662</v>
       </c>
       <c r="C496" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E496" t="s">
         <v>8</v>
@@ -11594,13 +11582,13 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B497" t="s">
         <v>662</v>
       </c>
       <c r="C497" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E497" t="s">
         <v>8</v>
@@ -11608,13 +11596,13 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B498" t="s">
         <v>662</v>
       </c>
       <c r="C498" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E498" t="s">
         <v>8</v>
@@ -11622,13 +11610,13 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B499" t="s">
         <v>662</v>
       </c>
       <c r="C499" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E499" t="s">
         <v>8</v>
@@ -11636,13 +11624,13 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B500" t="s">
         <v>662</v>
       </c>
       <c r="C500" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E500" t="s">
         <v>8</v>
@@ -11650,13 +11638,13 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B501" t="s">
         <v>662</v>
       </c>
       <c r="C501" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E501" t="s">
         <v>8</v>
@@ -11664,13 +11652,13 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B502" t="s">
         <v>662</v>
       </c>
       <c r="C502" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E502" t="s">
         <v>8</v>
@@ -11678,13 +11666,13 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B503" t="s">
         <v>662</v>
       </c>
       <c r="C503" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E503" t="s">
         <v>8</v>
@@ -11692,13 +11680,13 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B504" t="s">
         <v>662</v>
       </c>
       <c r="C504" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E504" t="s">
         <v>8</v>
@@ -11706,13 +11694,13 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B505" t="s">
         <v>662</v>
       </c>
       <c r="C505" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E505" t="s">
         <v>8</v>
@@ -11720,13 +11708,13 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B506" t="s">
         <v>662</v>
       </c>
       <c r="C506" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E506" t="s">
         <v>8</v>
@@ -11734,13 +11722,13 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B507" t="s">
         <v>662</v>
       </c>
       <c r="C507" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E507" t="s">
         <v>8</v>
@@ -11748,13 +11736,13 @@
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B508" t="s">
         <v>662</v>
       </c>
       <c r="C508" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E508" t="s">
         <v>8</v>
@@ -11762,13 +11750,13 @@
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B509" t="s">
         <v>662</v>
       </c>
       <c r="C509" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E509" t="s">
         <v>8</v>
@@ -11776,13 +11764,13 @@
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B510" t="s">
         <v>662</v>
       </c>
       <c r="C510" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E510" t="s">
         <v>8</v>
@@ -11790,13 +11778,13 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B511" t="s">
         <v>662</v>
       </c>
       <c r="C511" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E511" t="s">
         <v>8</v>
@@ -11804,13 +11792,13 @@
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B512" t="s">
         <v>662</v>
       </c>
       <c r="C512" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E512" t="s">
         <v>8</v>
@@ -11818,13 +11806,13 @@
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B513" t="s">
         <v>662</v>
       </c>
       <c r="C513" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E513" t="s">
         <v>8</v>
@@ -11832,13 +11820,13 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B514" t="s">
         <v>662</v>
       </c>
       <c r="C514" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E514" t="s">
         <v>8</v>
@@ -11846,13 +11834,13 @@
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B515" t="s">
         <v>662</v>
       </c>
       <c r="C515" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E515" t="s">
         <v>8</v>
@@ -11860,13 +11848,13 @@
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B516" t="s">
         <v>662</v>
       </c>
       <c r="C516" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E516" t="s">
         <v>8</v>
@@ -11874,13 +11862,13 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B517" t="s">
         <v>662</v>
       </c>
       <c r="C517" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E517" t="s">
         <v>8</v>
@@ -11888,13 +11876,13 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B518" t="s">
         <v>662</v>
       </c>
       <c r="C518" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E518" t="s">
         <v>8</v>
@@ -11902,13 +11890,13 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B519" t="s">
         <v>662</v>
       </c>
       <c r="C519" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E519" t="s">
         <v>8</v>
@@ -11916,13 +11904,13 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B520" t="s">
         <v>662</v>
       </c>
       <c r="C520" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E520" t="s">
         <v>8</v>
@@ -11930,13 +11918,13 @@
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B521" t="s">
         <v>662</v>
       </c>
       <c r="C521" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E521" t="s">
         <v>8</v>
@@ -11944,13 +11932,13 @@
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B522" t="s">
         <v>662</v>
       </c>
       <c r="C522" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E522" t="s">
         <v>8</v>
@@ -11958,13 +11946,13 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B523" t="s">
         <v>662</v>
       </c>
       <c r="C523" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E523" t="s">
         <v>8</v>
@@ -11972,13 +11960,13 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B524" t="s">
         <v>662</v>
       </c>
       <c r="C524" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E524" t="s">
         <v>8</v>
@@ -11986,13 +11974,13 @@
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B525" t="s">
         <v>662</v>
       </c>
       <c r="C525" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E525" t="s">
         <v>8</v>
@@ -12000,13 +11988,13 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B526" t="s">
         <v>662</v>
       </c>
       <c r="C526" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E526" t="s">
         <v>8</v>
@@ -12014,13 +12002,13 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B527" t="s">
         <v>662</v>
       </c>
       <c r="C527" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E527" t="s">
         <v>8</v>
@@ -12028,13 +12016,13 @@
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B528" t="s">
         <v>662</v>
       </c>
       <c r="C528" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E528" t="s">
         <v>8</v>
@@ -12042,13 +12030,13 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B529" t="s">
         <v>662</v>
       </c>
       <c r="C529" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E529" t="s">
         <v>8</v>
@@ -12056,13 +12044,13 @@
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B530" t="s">
         <v>662</v>
       </c>
       <c r="C530" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E530" t="s">
         <v>8</v>
@@ -12070,13 +12058,13 @@
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B531" t="s">
         <v>662</v>
       </c>
       <c r="C531" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E531" t="s">
         <v>8</v>
@@ -12084,13 +12072,13 @@
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B532" t="s">
         <v>662</v>
       </c>
       <c r="C532" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E532" t="s">
         <v>8</v>
@@ -12098,13 +12086,13 @@
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B533" t="s">
         <v>662</v>
       </c>
       <c r="C533" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E533" t="s">
         <v>8</v>
@@ -12112,13 +12100,13 @@
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B534" t="s">
         <v>662</v>
       </c>
       <c r="C534" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E534" t="s">
         <v>8</v>
@@ -12126,13 +12114,13 @@
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B535" t="s">
         <v>662</v>
       </c>
       <c r="C535" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E535" t="s">
         <v>8</v>
@@ -12140,13 +12128,13 @@
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B536" t="s">
         <v>662</v>
       </c>
       <c r="C536" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E536" t="s">
         <v>8</v>
@@ -12154,13 +12142,13 @@
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B537" t="s">
         <v>662</v>
       </c>
       <c r="C537" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E537" t="s">
         <v>8</v>
@@ -12168,13 +12156,13 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B538" t="s">
         <v>662</v>
       </c>
       <c r="C538" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E538" t="s">
         <v>8</v>
@@ -12182,13 +12170,13 @@
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B539" t="s">
         <v>662</v>
       </c>
       <c r="C539" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E539" t="s">
         <v>8</v>
@@ -12196,13 +12184,13 @@
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B540" t="s">
         <v>662</v>
       </c>
       <c r="C540" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E540" t="s">
         <v>8</v>
@@ -12210,13 +12198,13 @@
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B541" t="s">
         <v>662</v>
       </c>
       <c r="C541" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E541" t="s">
         <v>8</v>
@@ -12224,13 +12212,13 @@
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B542" t="s">
         <v>662</v>
       </c>
       <c r="C542" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E542" t="s">
         <v>8</v>
@@ -12238,13 +12226,13 @@
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B543" t="s">
         <v>662</v>
       </c>
       <c r="C543" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E543" t="s">
         <v>8</v>
@@ -12252,13 +12240,13 @@
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B544" t="s">
         <v>662</v>
       </c>
       <c r="C544" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E544" t="s">
         <v>8</v>
@@ -12266,13 +12254,13 @@
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B545" t="s">
         <v>662</v>
       </c>
       <c r="C545" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E545" t="s">
         <v>8</v>
@@ -12280,13 +12268,13 @@
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B546" t="s">
         <v>662</v>
       </c>
       <c r="C546" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E546" t="s">
         <v>8</v>
@@ -12294,13 +12282,13 @@
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B547" t="s">
         <v>662</v>
       </c>
       <c r="C547" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E547" t="s">
         <v>8</v>
@@ -12308,13 +12296,13 @@
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B548" t="s">
         <v>662</v>
       </c>
       <c r="C548" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E548" t="s">
         <v>8</v>
@@ -12322,13 +12310,13 @@
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B549" t="s">
         <v>662</v>
       </c>
       <c r="C549" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E549" t="s">
         <v>8</v>
@@ -12336,13 +12324,13 @@
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B550" t="s">
         <v>662</v>
       </c>
       <c r="C550" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E550" t="s">
         <v>8</v>
@@ -12350,13 +12338,13 @@
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B551" t="s">
         <v>662</v>
       </c>
       <c r="C551" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E551" t="s">
         <v>8</v>
@@ -12364,13 +12352,13 @@
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B552" t="s">
         <v>662</v>
       </c>
       <c r="C552" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E552" t="s">
         <v>8</v>
@@ -12378,13 +12366,13 @@
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B553" t="s">
         <v>662</v>
       </c>
       <c r="C553" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E553" t="s">
         <v>8</v>
@@ -12392,13 +12380,13 @@
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B554" t="s">
         <v>662</v>
       </c>
       <c r="C554" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E554" t="s">
         <v>8</v>
@@ -12406,13 +12394,13 @@
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B555" t="s">
         <v>662</v>
       </c>
       <c r="C555" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E555" t="s">
         <v>8</v>
@@ -12420,13 +12408,13 @@
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B556" t="s">
         <v>662</v>
       </c>
       <c r="C556" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E556" t="s">
         <v>8</v>
@@ -12434,13 +12422,13 @@
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B557" t="s">
         <v>662</v>
       </c>
       <c r="C557" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E557" t="s">
         <v>8</v>
@@ -12448,13 +12436,13 @@
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B558" t="s">
         <v>662</v>
       </c>
       <c r="C558" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E558" t="s">
         <v>8</v>
@@ -12462,13 +12450,13 @@
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B559" t="s">
         <v>662</v>
       </c>
       <c r="C559" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E559" t="s">
         <v>8</v>
@@ -12476,13 +12464,13 @@
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B560" t="s">
         <v>662</v>
       </c>
       <c r="C560" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E560" t="s">
         <v>8</v>
@@ -12490,13 +12478,13 @@
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B561" t="s">
         <v>662</v>
       </c>
       <c r="C561" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E561" t="s">
         <v>8</v>
@@ -12504,13 +12492,13 @@
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B562" t="s">
         <v>662</v>
       </c>
       <c r="C562" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E562" t="s">
         <v>8</v>
@@ -12518,13 +12506,13 @@
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B563" t="s">
         <v>662</v>
       </c>
       <c r="C563" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E563" t="s">
         <v>8</v>
@@ -12532,13 +12520,13 @@
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B564" t="s">
         <v>662</v>
       </c>
       <c r="C564" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E564" t="s">
         <v>8</v>
@@ -12546,13 +12534,13 @@
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B565" t="s">
         <v>662</v>
       </c>
       <c r="C565" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E565" t="s">
         <v>8</v>
@@ -12560,13 +12548,13 @@
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B566" t="s">
         <v>662</v>
       </c>
       <c r="C566" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E566" t="s">
         <v>8</v>
@@ -12574,13 +12562,13 @@
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B567" t="s">
         <v>662</v>
       </c>
       <c r="C567" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E567" t="s">
         <v>8</v>
@@ -12588,13 +12576,13 @@
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B568" t="s">
         <v>662</v>
       </c>
       <c r="C568" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E568" t="s">
         <v>8</v>
@@ -12602,13 +12590,13 @@
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B569" t="s">
         <v>662</v>
       </c>
       <c r="C569" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E569" t="s">
         <v>8</v>
@@ -12616,13 +12604,13 @@
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B570" t="s">
         <v>662</v>
       </c>
       <c r="C570" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E570" t="s">
         <v>8</v>
@@ -12630,13 +12618,13 @@
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B571" t="s">
         <v>662</v>
       </c>
       <c r="C571" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E571" t="s">
         <v>8</v>
@@ -12644,13 +12632,13 @@
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B572" t="s">
         <v>662</v>
       </c>
       <c r="C572" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E572" t="s">
         <v>8</v>
@@ -12658,13 +12646,13 @@
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B573" t="s">
         <v>662</v>
       </c>
       <c r="C573" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E573" t="s">
         <v>8</v>
@@ -12672,13 +12660,13 @@
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B574" t="s">
         <v>662</v>
       </c>
       <c r="C574" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E574" t="s">
         <v>8</v>
@@ -12686,13 +12674,13 @@
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B575" t="s">
         <v>662</v>
       </c>
       <c r="C575" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E575" t="s">
         <v>8</v>
@@ -12700,13 +12688,13 @@
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B576" t="s">
         <v>662</v>
       </c>
       <c r="C576" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E576" t="s">
         <v>8</v>
@@ -12714,13 +12702,13 @@
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B577" t="s">
         <v>662</v>
       </c>
       <c r="C577" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E577" t="s">
         <v>8</v>
@@ -12728,13 +12716,13 @@
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B578" t="s">
         <v>662</v>
       </c>
       <c r="C578" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E578" t="s">
         <v>8</v>
@@ -12742,13 +12730,13 @@
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B579" t="s">
         <v>662</v>
       </c>
       <c r="C579" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E579" t="s">
         <v>8</v>
@@ -12756,13 +12744,13 @@
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B580" t="s">
         <v>662</v>
       </c>
       <c r="C580" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E580" t="s">
         <v>8</v>
@@ -12770,13 +12758,13 @@
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B581" t="s">
         <v>662</v>
       </c>
       <c r="C581" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E581" t="s">
         <v>8</v>
@@ -12784,13 +12772,13 @@
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B582" t="s">
         <v>662</v>
       </c>
       <c r="C582" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E582" t="s">
         <v>8</v>
@@ -12798,13 +12786,13 @@
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B583" t="s">
         <v>662</v>
       </c>
       <c r="C583" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E583" t="s">
         <v>8</v>
@@ -12812,13 +12800,13 @@
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B584" t="s">
         <v>662</v>
       </c>
       <c r="C584" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E584" t="s">
         <v>8</v>
@@ -12826,13 +12814,13 @@
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B585" t="s">
         <v>662</v>
       </c>
       <c r="C585" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E585" t="s">
         <v>8</v>
@@ -12840,13 +12828,13 @@
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B586" t="s">
         <v>662</v>
       </c>
       <c r="C586" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E586" t="s">
         <v>8</v>
@@ -12854,13 +12842,13 @@
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B587" t="s">
         <v>662</v>
       </c>
       <c r="C587" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E587" t="s">
         <v>8</v>
@@ -12868,13 +12856,13 @@
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B588" t="s">
         <v>662</v>
       </c>
       <c r="C588" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E588" t="s">
         <v>8</v>
@@ -12882,72 +12870,72 @@
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B589" t="s">
         <v>662</v>
       </c>
       <c r="C589" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E589" t="s">
         <v>8</v>
+      </c>
+      <c r="I589" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B590" t="s">
         <v>662</v>
       </c>
       <c r="C590" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E590" t="s">
         <v>8</v>
-      </c>
-      <c r="I590" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B591" t="s">
         <v>662</v>
       </c>
       <c r="C591" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E591" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B592" t="s">
         <v>662</v>
       </c>
       <c r="C592" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E592" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B593" t="s">
         <v>662</v>
       </c>
       <c r="C593" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E593" t="s">
         <v>8</v>
@@ -12955,13 +12943,13 @@
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B594" t="s">
         <v>662</v>
       </c>
       <c r="C594" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E594" t="s">
         <v>8</v>
@@ -12969,13 +12957,13 @@
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B595" t="s">
         <v>662</v>
       </c>
       <c r="C595" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E595" t="s">
         <v>8</v>
@@ -12983,13 +12971,13 @@
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B596" t="s">
         <v>662</v>
       </c>
       <c r="C596" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E596" t="s">
         <v>8</v>
@@ -12997,13 +12985,13 @@
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B597" t="s">
         <v>662</v>
       </c>
       <c r="C597" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E597" t="s">
         <v>8</v>
@@ -13011,13 +12999,13 @@
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B598" t="s">
         <v>662</v>
       </c>
       <c r="C598" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E598" t="s">
         <v>8</v>
@@ -13025,13 +13013,13 @@
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B599" t="s">
         <v>662</v>
       </c>
       <c r="C599" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E599" t="s">
         <v>8</v>
@@ -13039,13 +13027,13 @@
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B600" t="s">
         <v>662</v>
       </c>
       <c r="C600" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E600" t="s">
         <v>8</v>
@@ -13053,13 +13041,13 @@
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B601" t="s">
         <v>662</v>
       </c>
       <c r="C601" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E601" t="s">
         <v>8</v>
@@ -13067,29 +13055,15 @@
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B602" t="s">
         <v>662</v>
       </c>
       <c r="C602" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E602" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A603" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B603" t="s">
-        <v>662</v>
-      </c>
-      <c r="C603" t="s">
-        <v>659</v>
-      </c>
-      <c r="E603" t="s">
         <v>8</v>
       </c>
     </row>

--- a/public/data/db_source/variable.xlsx
+++ b/public/data/db_source/variable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ECED50-544B-A842-80E8-C0F37A585A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B69D60-6FBC-1348-A649-E02B35F90D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3680" windowWidth="28800" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="1289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="1292">
   <si>
     <t>id</t>
   </si>
@@ -3887,6 +3887,15 @@
   </si>
   <si>
     <t>key</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_10, ser_pub_loc___variable_11</t>
+  </si>
+  <si>
+    <t>sourceVar_ids</t>
+  </si>
+  <si>
+    <t>accident_route___variable_7, dep_sante___variable_7</t>
   </si>
 </sst>
 </file>
@@ -3956,9 +3965,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5F79C97-E8B2-3E4B-873D-A9EBE7FF4B08}" name="Tableau1" displayName="Tableau1" ref="A1:N602" totalsRowShown="0">
-  <autoFilter ref="A1:N602" xr:uid="{B5F79C97-E8B2-3E4B-873D-A9EBE7FF4B08}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5F79C97-E8B2-3E4B-873D-A9EBE7FF4B08}" name="Tableau1" displayName="Tableau1" ref="A1:O602" totalsRowShown="0">
+  <autoFilter ref="A1:O602" xr:uid="{B5F79C97-E8B2-3E4B-873D-A9EBE7FF4B08}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{93604F40-CD55-3D4B-AC71-27C6EBB96585}" name="id"/>
     <tableColumn id="2" xr3:uid="{BF843A60-41B0-EA48-977A-51FEEA73F6C7}" name="dataset_id"/>
     <tableColumn id="3" xr3:uid="{BCB7C440-426C-EF4D-8E48-57BB86725760}" name="name"/>
@@ -3973,6 +3982,7 @@
     <tableColumn id="12" xr3:uid="{113E5C5D-89D6-9C42-8737-7B27E528F557}" name="modality_ids"/>
     <tableColumn id="13" xr3:uid="{0D9C543A-3D7D-A74A-A543-90491A90EB94}" name="tag_ids"/>
     <tableColumn id="14" xr3:uid="{80B52D4C-5640-6240-939A-6DC6F1F2147C}" name="key"/>
+    <tableColumn id="15" xr3:uid="{8C4309FC-4A37-1243-B760-EBAD68048C78}" name="sourceVar_ids"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4265,13 +4275,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N602"/>
+  <dimension ref="A1:O602"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4289,9 +4299,10 @@
     <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4334,8 +4345,11 @@
       <c r="N1" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>663</v>
       </c>
@@ -4355,7 +4369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>664</v>
       </c>
@@ -4372,7 +4386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>665</v>
       </c>
@@ -4401,7 +4415,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>666</v>
       </c>
@@ -4418,7 +4432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>667</v>
       </c>
@@ -4441,7 +4455,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>668</v>
       </c>
@@ -4461,7 +4475,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>669</v>
       </c>
@@ -4490,7 +4504,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>670</v>
       </c>
@@ -4513,7 +4527,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>671</v>
       </c>
@@ -4536,7 +4550,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>672</v>
       </c>
@@ -4553,7 +4567,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>673</v>
       </c>
@@ -4573,7 +4587,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>674</v>
       </c>
@@ -4589,8 +4603,11 @@
       <c r="I13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>675</v>
       </c>
@@ -4612,8 +4629,11 @@
       <c r="K14" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>676</v>
       </c>
@@ -4629,8 +4649,11 @@
       <c r="I15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>677</v>
       </c>
@@ -4645,6 +4668,9 @@
       </c>
       <c r="I16" t="s">
         <v>39</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1291</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -5278,7 +5304,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>706</v>
       </c>
@@ -5301,7 +5327,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>707</v>
       </c>
@@ -5321,7 +5347,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>708</v>
       </c>
@@ -5344,7 +5370,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>709</v>
       </c>
@@ -5364,7 +5390,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>710</v>
       </c>
@@ -5378,7 +5404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>711</v>
       </c>
@@ -5392,7 +5418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>712</v>
       </c>
@@ -5405,8 +5431,11 @@
       <c r="E55" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O55" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>713</v>
       </c>
@@ -5420,7 +5449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>714</v>
       </c>
@@ -5434,7 +5463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>715</v>
       </c>
@@ -5448,7 +5477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>716</v>
       </c>
@@ -5462,7 +5491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>717</v>
       </c>
@@ -5476,7 +5505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>718</v>
       </c>
@@ -5490,7 +5519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>719</v>
       </c>
@@ -5504,7 +5533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>720</v>
       </c>
@@ -5518,7 +5547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>721</v>
       </c>
